--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1418328.265146923</v>
+        <v>1417648.848045094</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038454</v>
+        <v>5588220.064038458</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736548</v>
+        <v>504792.0292736558</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7134039554108</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>206.7247209130925</v>
+        <v>206.7247209130927</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7060249576205</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>208.0035951256321</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.27955486713151</v>
+        <v>239.9403233994416</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>48.04258570959364</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>80.89774890663912</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5198806735469</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.2167367024922</v>
+        <v>218.2167367024923</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>72.59608009679432</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>84.4293188929589</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.82520712046108</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>14.08671310092211</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2882692949636</v>
+        <v>44.89856912753557</v>
       </c>
       <c r="V12" t="n">
-        <v>54.72196615872119</v>
+        <v>54.72196615872133</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>67.51300991159502</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.20641291948877</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.33011483010785</v>
+        <v>10.33011483010799</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.1298096364891</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S13" t="n">
-        <v>35.39157652215686</v>
+        <v>35.39157652215701</v>
       </c>
       <c r="T13" t="n">
-        <v>58.28273605053793</v>
+        <v>58.28273605053807</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9136404279224</v>
+        <v>207.9736473687798</v>
       </c>
       <c r="V13" t="n">
-        <v>151.377031998206</v>
+        <v>86.73825122973358</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9051373003467</v>
+        <v>111.9051373003468</v>
       </c>
       <c r="X13" t="n">
-        <v>57.55023929614981</v>
+        <v>57.55023929614995</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.4251070522175</v>
+        <v>48.42510705221764</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>218.7134039554108</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>239.9403233994415</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.8262626552655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>48.04258570959367</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
         <v>187.5198806735468</v>
       </c>
       <c r="X14" t="n">
-        <v>206.8201389062934</v>
+        <v>99.86589657111675</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.4829961308875</v>
+        <v>218.2167367024922</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>72.59608009679295</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S15" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T15" t="n">
-        <v>185.22277143397</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U15" t="n">
-        <v>44.89856912753543</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V15" t="n">
-        <v>54.72196615872119</v>
+        <v>54.72196615872122</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>24.54811807355517</v>
+        <v>24.5481180735552</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.20641291948877</v>
+        <v>19.2064129194888</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.33011483010785</v>
+        <v>10.33011483010787</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4515834630158</v>
+        <v>94.72631518417047</v>
       </c>
       <c r="T16" t="n">
-        <v>58.28273605053793</v>
+        <v>58.28273605053796</v>
       </c>
       <c r="U16" t="n">
         <v>112.9136404279224</v>
       </c>
       <c r="V16" t="n">
-        <v>86.73825122973344</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>111.9051373003467</v>
       </c>
       <c r="X16" t="n">
-        <v>57.55023929614981</v>
+        <v>57.55023929614984</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.4251070522175</v>
+        <v>48.42510705221753</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389619</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C17" t="n">
-        <v>106.1381382966437</v>
+        <v>106.1381382966434</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117163</v>
+        <v>97.11944234117141</v>
       </c>
       <c r="E17" t="n">
-        <v>118.8615799110772</v>
+        <v>118.8615799110769</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333959990543</v>
+        <v>138.0333959990542</v>
       </c>
       <c r="G17" t="n">
-        <v>139.3537407829926</v>
+        <v>139.3537407829924</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881663</v>
+        <v>51.2396800388164</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914104</v>
+        <v>61.63319857914081</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709794</v>
+        <v>86.93329805709772</v>
       </c>
       <c r="X17" t="n">
-        <v>106.2335562898446</v>
+        <v>106.2335562898443</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860433</v>
+        <v>117.6301540860431</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S18" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T18" t="n">
-        <v>154.3979961531693</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U18" t="n">
         <v>216.2882692949636</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>95.03167609083864</v>
       </c>
     </row>
     <row r="19">
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.01867628890813</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>12.32705781147351</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>86.03029751464798</v>
       </c>
       <c r="W19" t="n">
-        <v>11.31855468389784</v>
+        <v>11.31855468389762</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.65539105529383</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.126821338962</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966437</v>
+        <v>106.1381382966434</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117169</v>
+        <v>97.11944234117141</v>
       </c>
       <c r="E20" t="n">
-        <v>118.8615799110772</v>
+        <v>118.8615799110769</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990544</v>
+        <v>138.0333959990541</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829927</v>
+        <v>139.3537407829924</v>
       </c>
       <c r="H20" t="n">
-        <v>51.23968003881669</v>
+        <v>51.2396800388164</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914109</v>
+        <v>61.63319857914081</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709823</v>
+        <v>86.93329805709772</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898446</v>
+        <v>106.2335562898443</v>
       </c>
       <c r="Y20" t="n">
-        <v>117.6301540860434</v>
+        <v>117.6301540860431</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>105.7493920015198</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>11.29564218405893</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3033405953505</v>
+        <v>27.15472772570106</v>
       </c>
       <c r="V22" t="n">
-        <v>104.4552356886358</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>11.3185546838979</v>
+        <v>11.31855468389762</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.126821338962</v>
+        <v>118.1268213389616</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1381382966437</v>
+        <v>106.1381382966434</v>
       </c>
       <c r="D23" t="n">
-        <v>97.11944234117169</v>
+        <v>97.11944234117135</v>
       </c>
       <c r="E23" t="n">
-        <v>118.8615799110772</v>
+        <v>118.8615799110769</v>
       </c>
       <c r="F23" t="n">
-        <v>138.0333959990544</v>
+        <v>138.0333959990541</v>
       </c>
       <c r="G23" t="n">
-        <v>139.3537407829927</v>
+        <v>139.3537407829924</v>
       </c>
       <c r="H23" t="n">
-        <v>51.23968003881669</v>
+        <v>51.23968003881635</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.63319857914109</v>
+        <v>61.63319857914075</v>
       </c>
       <c r="W23" t="n">
-        <v>86.933298057098</v>
+        <v>86.93329805709766</v>
       </c>
       <c r="X23" t="n">
-        <v>106.2335562898446</v>
+        <v>106.2335562898443</v>
       </c>
       <c r="Y23" t="n">
-        <v>117.6301540860434</v>
+        <v>117.630154086043</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.0659509130005</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S24" t="n">
-        <v>145.180098865789</v>
+        <v>75.61210360044046</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U24" t="n">
         <v>216.2882692949636</v>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.01867628890813</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S25" t="n">
-        <v>18.30285672414734</v>
+        <v>86.0302975146481</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>12.32705781147357</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.3185546838979</v>
+        <v>11.31855468389756</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>289.108279482593</v>
       </c>
       <c r="C26" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402747</v>
       </c>
       <c r="D26" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848027</v>
       </c>
       <c r="E26" t="n">
         <v>289.8430380547082</v>
@@ -2573,7 +2573,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I26" t="n">
-        <v>46.46448383044608</v>
+        <v>46.46448383044607</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718225</v>
+        <v>70.39487552718224</v>
       </c>
       <c r="T26" t="n">
         <v>118.4374612367759</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.7249903572901</v>
+        <v>80.72499035729008</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269058</v>
+        <v>66.92498520269056</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026897</v>
+        <v>50.54634960026895</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604842</v>
+        <v>49.4940994560484</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423473</v>
+        <v>49.96102378423471</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750533</v>
+        <v>65.96079029750531</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645897</v>
+        <v>54.33966129645896</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019767</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833754</v>
       </c>
       <c r="S28" t="n">
         <v>105.7864520493391</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777201</v>
       </c>
       <c r="U28" t="n">
         <v>183.3085159551046</v>
@@ -2776,7 +2776,7 @@
         <v>182.3000128275289</v>
       </c>
       <c r="X28" t="n">
-        <v>127.9451148233321</v>
+        <v>127.945114823332</v>
       </c>
       <c r="Y28" t="n">
         <v>118.8199825793997</v>
@@ -2810,7 +2810,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I29" t="n">
-        <v>46.46448383044604</v>
+        <v>46.46448383044606</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I30" t="n">
-        <v>56.4074501722953</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>38.82520712046109</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S30" t="n">
         <v>145.180098865789</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72499035729008</v>
+        <v>80.72499035729007</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92498520269056</v>
+        <v>66.92498520269055</v>
       </c>
       <c r="D31" t="n">
-        <v>50.54634960026895</v>
+        <v>50.54634960026894</v>
       </c>
       <c r="E31" t="n">
-        <v>49.4940994560484</v>
+        <v>49.49409945604839</v>
       </c>
       <c r="F31" t="n">
-        <v>49.96102378423471</v>
+        <v>49.9610237842347</v>
       </c>
       <c r="G31" t="n">
-        <v>65.96079029750531</v>
+        <v>65.9607902975053</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33966129645896</v>
+        <v>54.33966129645894</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49810771019767</v>
+        <v>33.49810771019766</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.108279482593</v>
+        <v>289.1082794825931</v>
       </c>
       <c r="C32" t="n">
-        <v>277.1195964402747</v>
+        <v>277.1195964402748</v>
       </c>
       <c r="D32" t="n">
-        <v>268.1009004848027</v>
+        <v>268.1009004848028</v>
       </c>
       <c r="E32" t="n">
-        <v>289.8430380547082</v>
+        <v>289.8430380547084</v>
       </c>
       <c r="F32" t="n">
-        <v>309.0148541426854</v>
+        <v>309.0148541426855</v>
       </c>
       <c r="G32" t="n">
-        <v>310.3351989266237</v>
+        <v>310.3351989266238</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824477</v>
+        <v>222.2211381824478</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46448383044606</v>
+        <v>46.46448383044618</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718222</v>
+        <v>70.39487552718235</v>
       </c>
       <c r="T32" t="n">
-        <v>118.4374612367759</v>
+        <v>118.437461236776</v>
       </c>
       <c r="U32" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338213</v>
       </c>
       <c r="V32" t="n">
-        <v>232.6146567227721</v>
+        <v>232.6146567227722</v>
       </c>
       <c r="W32" t="n">
-        <v>257.914756200729</v>
+        <v>257.9147562007291</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2150144334756</v>
+        <v>277.2150144334757</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296745</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72499035729007</v>
+        <v>80.7249903572902</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269055</v>
+        <v>66.92498520269068</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026894</v>
+        <v>50.54634960026907</v>
       </c>
       <c r="E34" t="n">
-        <v>49.49409945604839</v>
+        <v>49.49409945604852</v>
       </c>
       <c r="F34" t="n">
-        <v>49.9610237842347</v>
+        <v>49.96102378423483</v>
       </c>
       <c r="G34" t="n">
-        <v>65.9607902975053</v>
+        <v>65.96079029750543</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645894</v>
+        <v>54.33966129645907</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49810771019766</v>
+        <v>33.49810771019779</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833753</v>
+        <v>34.66960724833766</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7864520493391</v>
+        <v>105.7864520493392</v>
       </c>
       <c r="T34" t="n">
-        <v>128.6776115777201</v>
+        <v>128.6776115777203</v>
       </c>
       <c r="U34" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551047</v>
       </c>
       <c r="V34" t="n">
-        <v>157.1331267569157</v>
+        <v>157.1331267569158</v>
       </c>
       <c r="W34" t="n">
-        <v>182.3000128275289</v>
+        <v>182.300012827529</v>
       </c>
       <c r="X34" t="n">
-        <v>127.945114823332</v>
+        <v>127.9451148233322</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8199825793997</v>
+        <v>118.8199825793998</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.3049220700379</v>
+        <v>210.304922070038</v>
       </c>
       <c r="C35" t="n">
         <v>198.3162390277197</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422082</v>
+        <v>39.63410382422084</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126616</v>
+        <v>72.48926702126619</v>
       </c>
       <c r="V35" t="n">
         <v>153.8112993102171</v>
@@ -3332,7 +3332,7 @@
         <v>198.4116570209206</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171193</v>
+        <v>209.8082548171194</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>52.71413118361143</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>38.82520712046112</v>
       </c>
       <c r="S36" t="n">
-        <v>145.180098865789</v>
+        <v>57.45983988134402</v>
       </c>
       <c r="T36" t="n">
-        <v>5.67823121554929</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U36" t="n">
         <v>216.2882692949636</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944735023</v>
+        <v>1.921632944735052</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>147.036445487944</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678405</v>
+        <v>26.98309463678407</v>
       </c>
       <c r="T37" t="n">
-        <v>49.87425416516511</v>
+        <v>49.87425416516513</v>
       </c>
       <c r="U37" t="n">
-        <v>104.5051585425495</v>
+        <v>104.5051585425496</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436061</v>
+        <v>78.32976934436064</v>
       </c>
       <c r="W37" t="n">
-        <v>103.4966554149739</v>
+        <v>221.6907672745972</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077699</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684468</v>
+        <v>40.0166251668447</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.3049220700379</v>
+        <v>210.3049220700381</v>
       </c>
       <c r="C38" t="n">
-        <v>198.3162390277197</v>
+        <v>198.3162390277198</v>
       </c>
       <c r="D38" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722478</v>
       </c>
       <c r="E38" t="n">
-        <v>211.0396806421532</v>
+        <v>211.0396806421533</v>
       </c>
       <c r="F38" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301305</v>
       </c>
       <c r="G38" t="n">
-        <v>231.5318415140687</v>
+        <v>231.5318415140688</v>
       </c>
       <c r="H38" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698928</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.63410382422082</v>
+        <v>39.63410382422096</v>
       </c>
       <c r="U38" t="n">
-        <v>72.48926702126616</v>
+        <v>72.4892670212663</v>
       </c>
       <c r="V38" t="n">
-        <v>153.8112993102171</v>
+        <v>153.8112993102172</v>
       </c>
       <c r="W38" t="n">
-        <v>179.111398788174</v>
+        <v>179.1113987881741</v>
       </c>
       <c r="X38" t="n">
-        <v>198.4116570209206</v>
+        <v>198.4116570209207</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.8082548171193</v>
+        <v>209.8082548171195</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>57.83747085925584</v>
       </c>
       <c r="F39" t="n">
         <v>133.3468600696244</v>
@@ -3597,10 +3597,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>52.71413118361099</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>216.2882692949636</v>
       </c>
       <c r="V39" t="n">
-        <v>46.31348427334837</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.921632944735023</v>
+        <v>1.921632944735165</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>158.0197736114574</v>
+        <v>26.98309463678419</v>
       </c>
       <c r="T40" t="n">
-        <v>49.87425416516511</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U40" t="n">
-        <v>104.5051585425495</v>
+        <v>104.5051585425497</v>
       </c>
       <c r="V40" t="n">
-        <v>78.32976934436061</v>
+        <v>78.32976934436076</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4966554149739</v>
+        <v>103.496655414974</v>
       </c>
       <c r="X40" t="n">
-        <v>49.14175741077699</v>
+        <v>49.14175741077713</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.01662516684468</v>
+        <v>158.2107370264672</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.713164093835</v>
+        <v>210.7131640938347</v>
       </c>
       <c r="C41" t="n">
-        <v>198.7244810515167</v>
+        <v>198.7244810515165</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7057850960447</v>
+        <v>189.7057850960445</v>
       </c>
       <c r="E41" t="n">
-        <v>211.4479226659502</v>
+        <v>211.44792266595</v>
       </c>
       <c r="F41" t="n">
-        <v>230.6197387539274</v>
+        <v>230.6197387539272</v>
       </c>
       <c r="G41" t="n">
-        <v>231.9400835378657</v>
+        <v>231.9400835378655</v>
       </c>
       <c r="H41" t="n">
-        <v>143.8260227936897</v>
+        <v>143.8260227936894</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.04234584801786</v>
+        <v>40.0423458480176</v>
       </c>
       <c r="U41" t="n">
-        <v>72.8975090450632</v>
+        <v>72.89750904506295</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2195413340141</v>
+        <v>154.2195413340139</v>
       </c>
       <c r="W41" t="n">
-        <v>179.519640811971</v>
+        <v>179.5196408119708</v>
       </c>
       <c r="X41" t="n">
-        <v>198.8198990447176</v>
+        <v>198.8198990447174</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.2164968409164</v>
+        <v>210.2164968409161</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3825,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>112.5534739773603</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3873,7 +3873,7 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U42" t="n">
-        <v>183.2840134286285</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.329874968532067</v>
+        <v>117.6662926615778</v>
       </c>
       <c r="C43" t="n">
-        <v>75.31774140413606</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.01867628890813</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.39133666058109</v>
+        <v>27.39133666058083</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896215</v>
+        <v>50.28249618896189</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663466</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V43" t="n">
-        <v>78.73801136815766</v>
+        <v>78.7380113681574</v>
       </c>
       <c r="W43" t="n">
-        <v>103.9048974387709</v>
+        <v>103.9048974387707</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>49.54999943457378</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42486719064172</v>
+        <v>40.42486719064146</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.713164093835</v>
+        <v>210.7131640938349</v>
       </c>
       <c r="C44" t="n">
-        <v>198.7244810515167</v>
+        <v>198.7244810515166</v>
       </c>
       <c r="D44" t="n">
-        <v>189.7057850960447</v>
+        <v>189.7057850960446</v>
       </c>
       <c r="E44" t="n">
-        <v>211.447922665951</v>
+        <v>211.4479226659501</v>
       </c>
       <c r="F44" t="n">
-        <v>230.6197387539274</v>
+        <v>230.6197387539273</v>
       </c>
       <c r="G44" t="n">
-        <v>231.9400835378657</v>
+        <v>231.9400835378656</v>
       </c>
       <c r="H44" t="n">
-        <v>143.8260227936897</v>
+        <v>143.8260227936896</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.04234584801786</v>
+        <v>40.04234584801775</v>
       </c>
       <c r="U44" t="n">
-        <v>72.8975090450632</v>
+        <v>72.89750904506309</v>
       </c>
       <c r="V44" t="n">
-        <v>154.2195413340141</v>
+        <v>154.219541334014</v>
       </c>
       <c r="W44" t="n">
-        <v>179.519640811971</v>
+        <v>179.5196408119709</v>
       </c>
       <c r="X44" t="n">
-        <v>198.8198990447176</v>
+        <v>198.8198990447175</v>
       </c>
       <c r="Y44" t="n">
-        <v>210.2164968409164</v>
+        <v>210.2164968409163</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1132721997666</v>
+        <v>101.1076096969763</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>56.40745017229531</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>113.5247055659005</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968532067</v>
+        <v>2.329874968531954</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>115.3364176930442</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.39133666058109</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28249618896215</v>
+        <v>50.28249618896204</v>
       </c>
       <c r="U46" t="n">
-        <v>104.9134005663466</v>
+        <v>104.9134005663465</v>
       </c>
       <c r="V46" t="n">
-        <v>78.73801136815766</v>
+        <v>78.73801136815754</v>
       </c>
       <c r="W46" t="n">
-        <v>103.9048974387709</v>
+        <v>219.2413151318158</v>
       </c>
       <c r="X46" t="n">
-        <v>49.54999943457403</v>
+        <v>49.54999943457392</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>40.42486719064161</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>686.487047908367</v>
+        <v>684.8086237516177</v>
       </c>
       <c r="C11" t="n">
-        <v>477.6741985012027</v>
+        <v>475.9957743444534</v>
       </c>
       <c r="D11" t="n">
-        <v>277.9711429884547</v>
+        <v>475.9957743444534</v>
       </c>
       <c r="E11" t="n">
-        <v>277.9711429884547</v>
+        <v>265.8911328034114</v>
       </c>
       <c r="F11" t="n">
-        <v>36.94086155865352</v>
+        <v>265.8911328034114</v>
       </c>
       <c r="G11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0265863185276</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="K11" t="n">
-        <v>147.0265863185276</v>
+        <v>438.1753122677225</v>
       </c>
       <c r="L11" t="n">
-        <v>147.0265863185276</v>
+        <v>438.1753122677225</v>
       </c>
       <c r="M11" t="n">
         <v>438.1753122677225</v>
       </c>
       <c r="N11" t="n">
-        <v>594.0610367852262</v>
+        <v>725.2505961853292</v>
       </c>
       <c r="O11" t="n">
-        <v>885.209762734421</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="P11" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134524</v>
       </c>
       <c r="Q11" t="n">
         <v>1176.358488683616</v>
@@ -5069,22 +5069,22 @@
         <v>1176.358488683616</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.830624330491</v>
+        <v>1176.358488683616</v>
       </c>
       <c r="U11" t="n">
-        <v>1127.830624330491</v>
+        <v>1094.643590798122</v>
       </c>
       <c r="V11" t="n">
-        <v>1127.830624330491</v>
+        <v>1094.643590798122</v>
       </c>
       <c r="W11" t="n">
-        <v>1127.830624330491</v>
+        <v>905.2295699157513</v>
       </c>
       <c r="X11" t="n">
-        <v>1127.830624330491</v>
+        <v>905.2295699157513</v>
       </c>
       <c r="Y11" t="n">
-        <v>907.4096781663577</v>
+        <v>684.8086237516177</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>390.5311180628448</v>
+        <v>243.8845535519469</v>
       </c>
       <c r="C12" t="n">
-        <v>390.5311180628448</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="D12" t="n">
-        <v>390.5311180628448</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="E12" t="n">
-        <v>243.503108119716</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F12" t="n">
-        <v>108.8093100695904</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G12" t="n">
-        <v>108.8093100695904</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J12" t="n">
         <v>114.4548830157154</v>
       </c>
       <c r="K12" t="n">
-        <v>396.3714466953012</v>
+        <v>396.3714466953011</v>
       </c>
       <c r="L12" t="n">
-        <v>687.5201726444961</v>
+        <v>396.3714466953011</v>
       </c>
       <c r="M12" t="n">
-        <v>687.5201726444961</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="N12" t="n">
-        <v>687.5201726444961</v>
+        <v>685.9951411890713</v>
       </c>
       <c r="O12" t="n">
-        <v>687.5201726444961</v>
+        <v>977.1438671382663</v>
       </c>
       <c r="P12" t="n">
-        <v>977.1438671382657</v>
+        <v>977.1438671382663</v>
       </c>
       <c r="Q12" t="n">
         <v>1176.358488683616</v>
       </c>
       <c r="R12" t="n">
-        <v>1137.141107753857</v>
+        <v>1137.141107753858</v>
       </c>
       <c r="S12" t="n">
-        <v>1137.141107753857</v>
+        <v>990.4945432429596</v>
       </c>
       <c r="T12" t="n">
-        <v>1122.912104621613</v>
+        <v>803.1446308506866</v>
       </c>
       <c r="U12" t="n">
-        <v>904.4391053337705</v>
+        <v>757.7925408228729</v>
       </c>
       <c r="V12" t="n">
-        <v>849.1643920421329</v>
+        <v>702.5178275312352</v>
       </c>
       <c r="W12" t="n">
-        <v>607.848523275443</v>
+        <v>634.3228680245735</v>
       </c>
       <c r="X12" t="n">
-        <v>409.9315351532375</v>
+        <v>436.405879902368</v>
       </c>
       <c r="Y12" t="n">
-        <v>390.5311180628448</v>
+        <v>243.8845535519469</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.0078247478952</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="C13" t="n">
-        <v>176.0078247478952</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="D13" t="n">
-        <v>176.0078247478952</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="E13" t="n">
-        <v>176.0078247478952</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="F13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="G13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="H13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367233</v>
       </c>
       <c r="K13" t="n">
-        <v>88.75452017135994</v>
+        <v>88.7545201713599</v>
       </c>
       <c r="L13" t="n">
-        <v>229.8283602936762</v>
+        <v>229.8283602936761</v>
       </c>
       <c r="M13" t="n">
-        <v>390.4883917441606</v>
+        <v>390.4883917441605</v>
       </c>
       <c r="N13" t="n">
-        <v>550.5627442088387</v>
+        <v>550.5627442088385</v>
       </c>
       <c r="O13" t="n">
-        <v>687.4987641731927</v>
+        <v>687.4987641731925</v>
       </c>
       <c r="P13" t="n">
-        <v>783.387009711667</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="Q13" t="n">
-        <v>768.1043737152133</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="R13" t="n">
-        <v>768.1043737152133</v>
+        <v>646.3522300262288</v>
       </c>
       <c r="S13" t="n">
-        <v>732.3553065211155</v>
+        <v>610.6031628321308</v>
       </c>
       <c r="T13" t="n">
-        <v>673.4838559650166</v>
+        <v>551.7317122760318</v>
       </c>
       <c r="U13" t="n">
-        <v>559.42967371459</v>
+        <v>341.657320994436</v>
       </c>
       <c r="V13" t="n">
-        <v>406.5235807871092</v>
+        <v>254.0429258128869</v>
       </c>
       <c r="W13" t="n">
-        <v>293.4880885645368</v>
+        <v>141.0074335903143</v>
       </c>
       <c r="X13" t="n">
-        <v>235.356533719941</v>
+        <v>82.87587874571841</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.4422841722466</v>
+        <v>33.96162919802383</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>419.2509940713562</v>
+        <v>232.3400191808365</v>
       </c>
       <c r="C14" t="n">
-        <v>419.2509940713562</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="D14" t="n">
-        <v>419.2509940713562</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="E14" t="n">
-        <v>419.2509940713562</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F14" t="n">
-        <v>419.2509940713562</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G14" t="n">
-        <v>176.8870310416173</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J14" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K14" t="n">
-        <v>314.6758957228676</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="L14" t="n">
-        <v>434.1018702361344</v>
+        <v>142.9531442869386</v>
       </c>
       <c r="M14" t="n">
-        <v>434.1018702361344</v>
+        <v>434.1018702361332</v>
       </c>
       <c r="N14" t="n">
-        <v>434.1018702361344</v>
+        <v>434.1018702361332</v>
       </c>
       <c r="O14" t="n">
-        <v>725.2505961853296</v>
+        <v>725.2505961853278</v>
       </c>
       <c r="P14" t="n">
-        <v>1016.399322134525</v>
+        <v>1016.399322134522</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="T14" t="n">
-        <v>1176.358488683617</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="U14" t="n">
-        <v>1176.358488683617</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="V14" t="n">
-        <v>1176.358488683617</v>
+        <v>963.9722594864594</v>
       </c>
       <c r="W14" t="n">
-        <v>986.9444678012467</v>
+        <v>774.5582386040888</v>
       </c>
       <c r="X14" t="n">
-        <v>778.0352365827684</v>
+        <v>673.6835956029608</v>
       </c>
       <c r="Y14" t="n">
-        <v>640.1736243293469</v>
+        <v>453.2626494388272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>297.0596048335859</v>
+        <v>243.8845535519455</v>
       </c>
       <c r="C15" t="n">
-        <v>297.0596048335859</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="D15" t="n">
-        <v>158.220967823798</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="E15" t="n">
-        <v>158.220967823798</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J15" t="n">
-        <v>114.4548830157155</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K15" t="n">
-        <v>396.3714466953012</v>
+        <v>305.443733453258</v>
       </c>
       <c r="L15" t="n">
-        <v>687.5201726444964</v>
+        <v>596.5924594024526</v>
       </c>
       <c r="M15" t="n">
-        <v>977.1438671382671</v>
+        <v>596.5924594024526</v>
       </c>
       <c r="N15" t="n">
-        <v>977.1438671382671</v>
+        <v>887.7411853516472</v>
       </c>
       <c r="O15" t="n">
-        <v>977.1438671382671</v>
+        <v>887.7411853516472</v>
       </c>
       <c r="P15" t="n">
-        <v>977.1438671382671</v>
+        <v>977.1438671382645</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R15" t="n">
-        <v>1176.358488683617</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S15" t="n">
-        <v>1029.711924172719</v>
+        <v>990.4945432429578</v>
       </c>
       <c r="T15" t="n">
-        <v>842.6182156535575</v>
+        <v>803.1446308506847</v>
       </c>
       <c r="U15" t="n">
-        <v>797.2661256257439</v>
+        <v>584.6716315628427</v>
       </c>
       <c r="V15" t="n">
-        <v>741.9914123341064</v>
+        <v>529.3969182712051</v>
       </c>
       <c r="W15" t="n">
-        <v>500.6755435674165</v>
+        <v>288.0810495045151</v>
       </c>
       <c r="X15" t="n">
-        <v>475.8794647052395</v>
+        <v>263.2849706423382</v>
       </c>
       <c r="Y15" t="n">
-        <v>456.4790476148468</v>
+        <v>243.8845535519455</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="C16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="D16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="E16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K16" t="n">
-        <v>88.75452017135997</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L16" t="n">
-        <v>229.8283602936762</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M16" t="n">
-        <v>390.4883917441607</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N16" t="n">
-        <v>550.5627442088388</v>
+        <v>550.5627442088385</v>
       </c>
       <c r="O16" t="n">
-        <v>687.498764173193</v>
+        <v>687.4987641731925</v>
       </c>
       <c r="P16" t="n">
-        <v>783.3870097116672</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="Q16" t="n">
-        <v>783.3870097116672</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="R16" t="n">
-        <v>646.3522300262293</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="S16" t="n">
-        <v>514.5829538009608</v>
+        <v>687.7038630609894</v>
       </c>
       <c r="T16" t="n">
-        <v>455.7115032448619</v>
+        <v>628.8324125048905</v>
       </c>
       <c r="U16" t="n">
-        <v>341.6573209944353</v>
+        <v>514.7782302544638</v>
       </c>
       <c r="V16" t="n">
         <v>254.0429258128864</v>
       </c>
       <c r="W16" t="n">
-        <v>141.0074335903139</v>
+        <v>141.007433590314</v>
       </c>
       <c r="X16" t="n">
         <v>82.87587874571815</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.9616291980237</v>
+        <v>33.96162919802368</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340325</v>
+        <v>680.8463388340307</v>
       </c>
       <c r="C17" t="n">
-        <v>573.636098130352</v>
+        <v>573.6360981303503</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210878</v>
+        <v>475.5356513210863</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907068</v>
+        <v>355.4734493907056</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643893</v>
+        <v>216.0457766643882</v>
       </c>
       <c r="G17" t="n">
-        <v>75.2844223381336</v>
+        <v>75.28442233813331</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0265863185275</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K17" t="n">
-        <v>434.1018702361346</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="L17" t="n">
-        <v>434.1018702361346</v>
+        <v>314.6758957228669</v>
       </c>
       <c r="M17" t="n">
-        <v>725.2505961853299</v>
+        <v>314.6758957228669</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2505961853299</v>
+        <v>605.8246216720615</v>
       </c>
       <c r="O17" t="n">
-        <v>725.2505961853299</v>
+        <v>896.9733476212562</v>
       </c>
       <c r="P17" t="n">
-        <v>1016.399322134525</v>
+        <v>1016.399322134522</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.102732543071</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W17" t="n">
-        <v>1026.291320364184</v>
+        <v>1026.291320364181</v>
       </c>
       <c r="X17" t="n">
-        <v>918.9846978491894</v>
+        <v>918.9846978491871</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.1663603885395</v>
+        <v>800.1663603885374</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.52716977367234</v>
+        <v>290.7630514296891</v>
       </c>
       <c r="C18" t="n">
-        <v>23.52716977367234</v>
+        <v>290.7630514296891</v>
       </c>
       <c r="D18" t="n">
-        <v>23.52716977367234</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="E18" t="n">
-        <v>23.52716977367234</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="F18" t="n">
-        <v>23.52716977367234</v>
+        <v>151.9244144199012</v>
       </c>
       <c r="G18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J18" t="n">
         <v>114.4548830157154</v>
       </c>
       <c r="K18" t="n">
-        <v>394.8464152398768</v>
+        <v>302.9123108360307</v>
       </c>
       <c r="L18" t="n">
-        <v>394.8464152398768</v>
+        <v>594.0610367852253</v>
       </c>
       <c r="M18" t="n">
-        <v>394.8464152398768</v>
+        <v>885.2097627344199</v>
       </c>
       <c r="N18" t="n">
-        <v>685.995141189072</v>
+        <v>885.2097627344199</v>
       </c>
       <c r="O18" t="n">
-        <v>685.995141189072</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="P18" t="n">
-        <v>977.1438671382672</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R18" t="n">
-        <v>1176.358488683617</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S18" t="n">
-        <v>1029.711924172719</v>
+        <v>990.4945432429578</v>
       </c>
       <c r="T18" t="n">
-        <v>873.754352300831</v>
+        <v>803.1446308506847</v>
       </c>
       <c r="U18" t="n">
-        <v>655.2813530129889</v>
+        <v>584.6716315628427</v>
       </c>
       <c r="V18" t="n">
-        <v>655.2813530129889</v>
+        <v>584.6716315628427</v>
       </c>
       <c r="W18" t="n">
-        <v>413.965484246299</v>
+        <v>584.6716315628427</v>
       </c>
       <c r="X18" t="n">
-        <v>216.0484961240935</v>
+        <v>386.7546434406372</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.52716977367234</v>
+        <v>290.7630514296891</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>690.1536727918029</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="C19" t="n">
-        <v>690.1536727918029</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="D19" t="n">
-        <v>537.0817796195656</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="E19" t="n">
-        <v>385.0727653808845</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F19" t="n">
-        <v>232.5921104066616</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G19" t="n">
-        <v>63.95007511600379</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H19" t="n">
-        <v>63.95007511600379</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I19" t="n">
-        <v>63.95007511600379</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L19" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M19" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N19" t="n">
         <v>550.5627442088385</v>
@@ -5692,31 +5692,31 @@
         <v>783.3870097116667</v>
       </c>
       <c r="Q19" t="n">
-        <v>783.3870097116667</v>
+        <v>768.104373715213</v>
       </c>
       <c r="R19" t="n">
-        <v>783.3870097116667</v>
+        <v>631.0695940297751</v>
       </c>
       <c r="S19" t="n">
-        <v>783.3870097116667</v>
+        <v>631.0695940297751</v>
       </c>
       <c r="T19" t="n">
-        <v>783.3870097116667</v>
+        <v>631.0695940297751</v>
       </c>
       <c r="U19" t="n">
-        <v>770.9354361647238</v>
+        <v>343.89450251932</v>
       </c>
       <c r="V19" t="n">
-        <v>770.9354361647238</v>
+        <v>256.9952121004837</v>
       </c>
       <c r="W19" t="n">
-        <v>759.5025526456351</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="X19" t="n">
-        <v>759.5025526456351</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="Y19" t="n">
-        <v>690.1536727918029</v>
+        <v>23.52716977367229</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340322</v>
+        <v>680.8463388340313</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303517</v>
+        <v>573.636098130351</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210875</v>
+        <v>475.535651321087</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907064</v>
+        <v>355.4734493907065</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643888</v>
+        <v>216.0457766643892</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813365</v>
+        <v>75.28442233813331</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J20" t="n">
         <v>147.0265863185275</v>
       </c>
       <c r="K20" t="n">
-        <v>434.1018702361346</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="L20" t="n">
-        <v>434.1018702361346</v>
+        <v>302.9123108360307</v>
       </c>
       <c r="M20" t="n">
-        <v>725.2505961853299</v>
+        <v>594.0610367852253</v>
       </c>
       <c r="N20" t="n">
-        <v>1016.399322134525</v>
+        <v>885.2097627344199</v>
       </c>
       <c r="O20" t="n">
-        <v>1016.399322134525</v>
+        <v>885.2097627344199</v>
       </c>
       <c r="P20" t="n">
-        <v>1016.399322134525</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="V20" t="n">
-        <v>1114.102732543071</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W20" t="n">
-        <v>1026.291320364184</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491894</v>
+        <v>918.9846978491878</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885393</v>
+        <v>800.166360388538</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.16052223886</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="C21" t="n">
-        <v>425.4568494798148</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="D21" t="n">
-        <v>286.6182124700268</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="E21" t="n">
-        <v>286.6182124700268</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F21" t="n">
-        <v>151.9244144199012</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G21" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H21" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J21" t="n">
         <v>114.4548830157154</v>
       </c>
       <c r="K21" t="n">
-        <v>396.3714466953011</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="L21" t="n">
-        <v>687.5201726444964</v>
+        <v>405.60360896491</v>
       </c>
       <c r="M21" t="n">
-        <v>687.5201726444964</v>
+        <v>405.60360896491</v>
       </c>
       <c r="N21" t="n">
-        <v>978.6688985936917</v>
+        <v>405.60360896491</v>
       </c>
       <c r="O21" t="n">
-        <v>978.6688985936917</v>
+        <v>685.9951411890698</v>
       </c>
       <c r="P21" t="n">
-        <v>1176.358488683617</v>
+        <v>977.1438671382645</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R21" t="n">
-        <v>1176.358488683617</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S21" t="n">
-        <v>1176.358488683617</v>
+        <v>990.4945432429578</v>
       </c>
       <c r="T21" t="n">
-        <v>989.0085762913442</v>
+        <v>990.4945432429578</v>
       </c>
       <c r="U21" t="n">
-        <v>989.0085762913442</v>
+        <v>990.4945432429578</v>
       </c>
       <c r="V21" t="n">
-        <v>989.0085762913442</v>
+        <v>762.0989206912917</v>
       </c>
       <c r="W21" t="n">
-        <v>977.5988367114867</v>
+        <v>520.7830519246018</v>
       </c>
       <c r="X21" t="n">
-        <v>779.6818485892812</v>
+        <v>322.8660638023963</v>
       </c>
       <c r="Y21" t="n">
-        <v>587.16052223886</v>
+        <v>130.3447374519751</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.4306909218591</v>
+        <v>497.2501124752486</v>
       </c>
       <c r="C22" t="n">
-        <v>180.4306909218591</v>
+        <v>497.2501124752486</v>
       </c>
       <c r="D22" t="n">
-        <v>180.4306909218591</v>
+        <v>344.1782193030113</v>
       </c>
       <c r="E22" t="n">
-        <v>180.4306909218591</v>
+        <v>192.1692050643301</v>
       </c>
       <c r="F22" t="n">
-        <v>180.4306909218591</v>
+        <v>192.1692050643301</v>
       </c>
       <c r="G22" t="n">
-        <v>180.4306909218591</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L22" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M22" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N22" t="n">
         <v>550.5627442088385</v>
@@ -5938,22 +5938,22 @@
         <v>768.104373715213</v>
       </c>
       <c r="T22" t="n">
-        <v>768.104373715213</v>
+        <v>536.1120138990856</v>
       </c>
       <c r="U22" t="n">
-        <v>480.929282204758</v>
+        <v>508.682995994337</v>
       </c>
       <c r="V22" t="n">
-        <v>375.4189431253278</v>
+        <v>508.682995994337</v>
       </c>
       <c r="W22" t="n">
-        <v>363.986059606239</v>
+        <v>497.2501124752486</v>
       </c>
       <c r="X22" t="n">
-        <v>363.986059606239</v>
+        <v>497.2501124752486</v>
       </c>
       <c r="Y22" t="n">
-        <v>363.986059606239</v>
+        <v>497.2501124752486</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340324</v>
+        <v>680.8463388340313</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303519</v>
+        <v>573.636098130351</v>
       </c>
       <c r="D23" t="n">
-        <v>475.5356513210876</v>
+        <v>475.535651321087</v>
       </c>
       <c r="E23" t="n">
-        <v>355.4734493907065</v>
+        <v>355.4734493907063</v>
       </c>
       <c r="F23" t="n">
-        <v>216.045776664389</v>
+        <v>216.0457766643891</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813365</v>
+        <v>75.28442233813325</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J23" t="n">
-        <v>23.52716977367234</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="K23" t="n">
-        <v>314.6758957228676</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="L23" t="n">
-        <v>605.8246216720629</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="M23" t="n">
-        <v>605.8246216720629</v>
+        <v>438.1753122677221</v>
       </c>
       <c r="N23" t="n">
-        <v>896.9733476212582</v>
+        <v>725.2505961853278</v>
       </c>
       <c r="O23" t="n">
-        <v>896.9733476212582</v>
+        <v>1016.399322134522</v>
       </c>
       <c r="P23" t="n">
-        <v>1176.358488683617</v>
+        <v>1016.399322134522</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="T23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="U23" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.102732543071</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W23" t="n">
-        <v>1026.291320364184</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X23" t="n">
-        <v>918.9846978491893</v>
+        <v>918.9846978491876</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.1663603885393</v>
+        <v>800.166360388538</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>215.1981902200559</v>
+        <v>185.2308425327176</v>
       </c>
       <c r="C24" t="n">
-        <v>215.1981902200559</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="D24" t="n">
-        <v>215.1981902200559</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="E24" t="n">
-        <v>215.1981902200559</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F24" t="n">
-        <v>80.50439216993024</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G24" t="n">
-        <v>80.50439216993024</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H24" t="n">
-        <v>80.50439216993024</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J24" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K24" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="L24" t="n">
-        <v>302.9123108360314</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0610367852266</v>
+        <v>314.6758957228669</v>
       </c>
       <c r="N24" t="n">
-        <v>594.0610367852266</v>
+        <v>605.8246216720615</v>
       </c>
       <c r="O24" t="n">
-        <v>885.2097627344219</v>
+        <v>896.9733476212562</v>
       </c>
       <c r="P24" t="n">
-        <v>1176.358488683617</v>
+        <v>977.1438671382645</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683617</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="R24" t="n">
-        <v>1176.358488683617</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S24" t="n">
-        <v>1029.711924172719</v>
+        <v>1060.765245531189</v>
       </c>
       <c r="T24" t="n">
-        <v>1029.711924172719</v>
+        <v>873.4153331389157</v>
       </c>
       <c r="U24" t="n">
-        <v>811.2389248848771</v>
+        <v>654.9423338510736</v>
       </c>
       <c r="V24" t="n">
-        <v>582.843302333211</v>
+        <v>426.5467112994075</v>
       </c>
       <c r="W24" t="n">
-        <v>341.527433566521</v>
+        <v>185.2308425327176</v>
       </c>
       <c r="X24" t="n">
-        <v>341.527433566521</v>
+        <v>185.2308425327176</v>
       </c>
       <c r="Y24" t="n">
-        <v>341.527433566521</v>
+        <v>185.2308425327176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="C25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="D25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="E25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="F25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="G25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="H25" t="n">
-        <v>199.8015219346337</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="I25" t="n">
-        <v>63.95007511600379</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367234</v>
+        <v>23.52716977367229</v>
       </c>
       <c r="K25" t="n">
-        <v>88.75452017135991</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L25" t="n">
-        <v>229.8283602936761</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M25" t="n">
-        <v>390.4883917441605</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N25" t="n">
         <v>550.5627442088385</v>
@@ -6172,25 +6172,25 @@
         <v>631.0695940297751</v>
       </c>
       <c r="S25" t="n">
-        <v>612.5818599649798</v>
+        <v>544.1703036109386</v>
       </c>
       <c r="T25" t="n">
-        <v>380.5895001488524</v>
+        <v>544.1703036109386</v>
       </c>
       <c r="U25" t="n">
-        <v>368.1379266019094</v>
+        <v>256.9952121004836</v>
       </c>
       <c r="V25" t="n">
-        <v>368.1379266019094</v>
+        <v>256.9952121004836</v>
       </c>
       <c r="W25" t="n">
-        <v>356.7050430828206</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="X25" t="n">
-        <v>356.7050430828206</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="Y25" t="n">
-        <v>356.7050430828206</v>
+        <v>23.52716977367229</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1530.85321702315</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246537</v>
+        <v>967.2734811246542</v>
       </c>
       <c r="F26" t="n">
         <v>655.1372648189113</v>
@@ -6224,28 +6224,28 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7520416570869</v>
+        <v>193.7671652632434</v>
       </c>
       <c r="K26" t="n">
-        <v>711.0637474076112</v>
+        <v>611.0788710137678</v>
       </c>
       <c r="L26" t="n">
         <v>1154.705746081405</v>
       </c>
       <c r="M26" t="n">
-        <v>1754.477485022415</v>
+        <v>1694.961705243898</v>
       </c>
       <c r="N26" t="n">
-        <v>2330.816497741018</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O26" t="n">
-        <v>2838.043901352387</v>
+        <v>2788.77709334913</v>
       </c>
       <c r="P26" t="n">
-        <v>3253.443392976476</v>
+        <v>3204.176584973218</v>
       </c>
       <c r="Q26" t="n">
-        <v>3513.387435919411</v>
+        <v>3464.120627916154</v>
       </c>
       <c r="R26" t="n">
         <v>3513.387435919411</v>
@@ -6260,16 +6260,16 @@
         <v>3169.826869052968</v>
       </c>
       <c r="V26" t="n">
-        <v>2934.862569332995</v>
+        <v>2934.862569332996</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.342613574683</v>
+        <v>2674.342613574684</v>
       </c>
       <c r="X26" t="n">
-        <v>2394.327447480263</v>
+        <v>2394.327447480264</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.800566440188</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107162</v>
+        <v>444.7374632107161</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564833</v>
+        <v>377.1364680564832</v>
       </c>
       <c r="D28" t="n">
         <v>326.0795492683328</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137385</v>
+        <v>276.0855094137384</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6198288236024</v>
+        <v>225.6198288236023</v>
       </c>
       <c r="G28" t="n">
         <v>158.9927679170313</v>
       </c>
       <c r="H28" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529313</v>
       </c>
       <c r="I28" t="n">
         <v>70.26774871838823</v>
@@ -6385,22 +6385,22 @@
         <v>130.6341355862127</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777437</v>
+        <v>295.8463623777432</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939034</v>
+        <v>536.9050788939028</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5499867382312</v>
+        <v>797.5499867382307</v>
       </c>
       <c r="N28" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O28" t="n">
         <v>1294.53011195495</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q28" t="n">
         <v>1575.409598740987</v>
@@ -6424,10 +6424,10 @@
         <v>775.5355316551827</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346453</v>
+        <v>646.2980419346452</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110092</v>
+        <v>526.2778575110091</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306257</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.853217023151</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D29" t="n">
         <v>1260.044226634461</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246548</v>
+        <v>967.2734811246544</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1372648189117</v>
+        <v>655.1372648189115</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6673669132311</v>
+        <v>341.6673669132309</v>
       </c>
       <c r="H29" t="n">
         <v>117.2015707693438</v>
@@ -6461,19 +6461,19 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J29" t="n">
-        <v>293.752041657087</v>
+        <v>293.7520416570869</v>
       </c>
       <c r="K29" t="n">
-        <v>711.0637474076115</v>
+        <v>711.0637474076112</v>
       </c>
       <c r="L29" t="n">
-        <v>1254.690622475249</v>
+        <v>1195.174842696732</v>
       </c>
       <c r="M29" t="n">
-        <v>1854.462361416259</v>
+        <v>1794.946581637742</v>
       </c>
       <c r="N29" t="n">
-        <v>2381.534566131604</v>
+        <v>2281.549689737761</v>
       </c>
       <c r="O29" t="n">
         <v>2788.77709334913</v>
@@ -6540,16 +6540,16 @@
         <v>70.26774871838823</v>
       </c>
       <c r="J30" t="n">
-        <v>161.1954619604314</v>
+        <v>161.1954619604313</v>
       </c>
       <c r="K30" t="n">
-        <v>443.1120256400171</v>
+        <v>443.112025640017</v>
       </c>
       <c r="L30" t="n">
-        <v>879.4271125317764</v>
+        <v>879.4271125317762</v>
       </c>
       <c r="M30" t="n">
-        <v>1446.722754179754</v>
+        <v>917.4432737811854</v>
       </c>
       <c r="N30" t="n">
         <v>1513.148446029986</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7374632107161</v>
+        <v>444.7374632107162</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564832</v>
+        <v>377.1364680564834</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683329</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137384</v>
+        <v>276.0855094137386</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6198288236023</v>
+        <v>225.6198288236025</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9927679170313</v>
+        <v>158.9927679170315</v>
       </c>
       <c r="H31" t="n">
-        <v>104.1042211529313</v>
+        <v>104.1042211529316</v>
       </c>
       <c r="I31" t="n">
         <v>70.26774871838823</v>
       </c>
       <c r="J31" t="n">
-        <v>130.6341355862126</v>
+        <v>130.6341355862127</v>
       </c>
       <c r="K31" t="n">
         <v>295.8463623777437</v>
@@ -6628,7 +6628,7 @@
         <v>536.9050788939034</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5499867382313</v>
+        <v>797.5499867382312</v>
       </c>
       <c r="N31" t="n">
         <v>1057.609215596753</v>
@@ -6664,7 +6664,7 @@
         <v>646.2980419346455</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2778575110091</v>
+        <v>526.2778575110092</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>1530.85321702315</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2734811246544</v>
+        <v>967.2734811246537</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1372648189115</v>
+        <v>655.1372648189108</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6673669132305</v>
+        <v>341.6673669132307</v>
       </c>
       <c r="H32" t="n">
-        <v>117.2015707693438</v>
+        <v>117.201570769344</v>
       </c>
       <c r="I32" t="n">
         <v>70.26774871838823</v>
       </c>
       <c r="J32" t="n">
-        <v>193.7671652632434</v>
+        <v>234.2362618785713</v>
       </c>
       <c r="K32" t="n">
-        <v>551.5630912352511</v>
+        <v>651.5479676290955</v>
       </c>
       <c r="L32" t="n">
-        <v>1095.189966302888</v>
+        <v>1095.189966302889</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.961705243898</v>
+        <v>1694.961705243899</v>
       </c>
       <c r="N32" t="n">
         <v>2281.549689737761</v>
@@ -6734,16 +6734,16 @@
         <v>3169.826869052968</v>
       </c>
       <c r="V32" t="n">
-        <v>2934.862569332996</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W32" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X32" t="n">
-        <v>2394.327447480264</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.800566440189</v>
+        <v>2102.800566440188</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6783,7 @@
         <v>352.1843123979739</v>
       </c>
       <c r="L33" t="n">
-        <v>549.3622536785582</v>
+        <v>788.4993992897331</v>
       </c>
       <c r="M33" t="n">
         <v>1116.657895326535</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.737463210716</v>
+        <v>444.737463210717</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564831</v>
+        <v>377.1364680564839</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0795492683327</v>
+        <v>326.0795492683333</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0855094137384</v>
+        <v>276.0855094137389</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236023</v>
+        <v>225.6198288236027</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170313</v>
+        <v>158.9927679170315</v>
       </c>
       <c r="H34" t="n">
-        <v>104.1042211529313</v>
+        <v>104.1042211529314</v>
       </c>
       <c r="I34" t="n">
         <v>70.26774871838823</v>
       </c>
       <c r="J34" t="n">
-        <v>130.6341355862119</v>
+        <v>130.6341355862126</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8463623777429</v>
+        <v>295.8463623777435</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939026</v>
+        <v>536.905078893903</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382305</v>
+        <v>797.5499867382329</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596752</v>
+        <v>1057.609215596754</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.530111954949</v>
+        <v>1294.530111954952</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887267</v>
+        <v>1490.403233887269</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740986</v>
+        <v>1575.409598740988</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439635</v>
+        <v>1540.389793439637</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369598</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.557405937555</v>
+        <v>1303.557405937557</v>
       </c>
       <c r="U34" t="n">
-        <v>1118.397288811187</v>
+        <v>1118.397288811189</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536966</v>
+        <v>959.676958753698</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551825</v>
+        <v>775.5355316551838</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2980419346451</v>
+        <v>646.2980419346463</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.277857511009</v>
+        <v>526.2778575110101</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.714903950992</v>
+        <v>1262.714903950991</v>
       </c>
       <c r="C35" t="n">
         <v>1062.395470589659</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227426</v>
+        <v>871.1858311227418</v>
       </c>
       <c r="E35" t="n">
-        <v>658.014436534709</v>
+        <v>658.0144365347082</v>
       </c>
       <c r="F35" t="n">
-        <v>425.477571150739</v>
+        <v>425.4775711507382</v>
       </c>
       <c r="G35" t="n">
         <v>191.6070241668297</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J35" t="n">
-        <v>170.2399954895711</v>
+        <v>150.6958382350664</v>
       </c>
       <c r="K35" t="n">
-        <v>487.5668248462521</v>
+        <v>468.0226675917474</v>
       </c>
       <c r="L35" t="n">
-        <v>931.2088235200459</v>
+        <v>468.0226675917474</v>
       </c>
       <c r="M35" t="n">
-        <v>1430.995686067212</v>
+        <v>967.8095301389135</v>
       </c>
       <c r="N35" t="n">
-        <v>1917.598794167231</v>
+        <v>1454.412638238932</v>
       </c>
       <c r="O35" t="n">
-        <v>2324.841321384757</v>
+        <v>1861.655165456458</v>
       </c>
       <c r="P35" t="n">
-        <v>2337.028947235796</v>
+        <v>2177.069780686703</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="T35" t="n">
         <v>2296.994498928502</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.77301708884</v>
+        <v>2223.773017088839</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.408068290641</v>
+        <v>2068.40806829064</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.487463454101</v>
+        <v>1887.4874634541</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281454</v>
+        <v>1687.071648281453</v>
       </c>
       <c r="Y35" t="n">
-        <v>1475.144118163152</v>
+        <v>1475.144118163151</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>907.3871668486406</v>
+        <v>814.3791637492903</v>
       </c>
       <c r="C36" t="n">
-        <v>745.6834940895953</v>
+        <v>652.6754909902451</v>
       </c>
       <c r="D36" t="n">
-        <v>606.8448570798074</v>
+        <v>513.8368539804571</v>
       </c>
       <c r="E36" t="n">
-        <v>459.8168471366786</v>
+        <v>366.8088440373283</v>
       </c>
       <c r="F36" t="n">
-        <v>325.123049086553</v>
+        <v>232.1150459872027</v>
       </c>
       <c r="G36" t="n">
-        <v>196.7258044403241</v>
+        <v>103.7178013409738</v>
       </c>
       <c r="H36" t="n">
-        <v>99.98717609987898</v>
+        <v>103.7178013409738</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J36" t="n">
         <v>137.668292186759</v>
       </c>
       <c r="K36" t="n">
-        <v>419.5848558663447</v>
+        <v>300.6655971696226</v>
       </c>
       <c r="L36" t="n">
-        <v>855.8999427581039</v>
+        <v>736.9806840613818</v>
       </c>
       <c r="M36" t="n">
-        <v>855.8999427581039</v>
+        <v>1304.276325709359</v>
       </c>
       <c r="N36" t="n">
-        <v>1434.314607198963</v>
+        <v>1304.276325709359</v>
       </c>
       <c r="O36" t="n">
         <v>1773.721946298055</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.814325690446</v>
+        <v>2137.814325690445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235796</v>
+        <v>2337.028947235795</v>
       </c>
       <c r="R36" t="n">
         <v>2297.811566306037</v>
       </c>
       <c r="S36" t="n">
-        <v>2151.165001795139</v>
+        <v>2239.771324001649</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.429414708726</v>
+        <v>2052.421411609376</v>
       </c>
       <c r="U36" t="n">
-        <v>1926.956415420884</v>
+        <v>1833.948412321534</v>
       </c>
       <c r="V36" t="n">
-        <v>1698.560792869218</v>
+        <v>1605.552789769868</v>
       </c>
       <c r="W36" t="n">
-        <v>1457.244924102528</v>
+        <v>1364.236921003178</v>
       </c>
       <c r="X36" t="n">
-        <v>1259.327935980323</v>
+        <v>1166.319932880972</v>
       </c>
       <c r="Y36" t="n">
-        <v>1066.806609629901</v>
+        <v>973.7986065305513</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>347.7428960279732</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="C37" t="n">
-        <v>347.7428960279732</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="D37" t="n">
-        <v>347.7428960279732</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="E37" t="n">
-        <v>347.7428960279732</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="F37" t="n">
-        <v>195.2622410537503</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="G37" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471592</v>
+        <v>46.74057894471591</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424035</v>
@@ -7120,25 +7120,25 @@
         <v>806.6004188827103</v>
       </c>
       <c r="S37" t="n">
-        <v>779.3447677344436</v>
+        <v>779.3447677344435</v>
       </c>
       <c r="T37" t="n">
-        <v>728.9667332241759</v>
+        <v>728.9667332241756</v>
       </c>
       <c r="U37" t="n">
-        <v>623.4059670195804</v>
+        <v>623.4059670195801</v>
       </c>
       <c r="V37" t="n">
-        <v>544.2849878838626</v>
+        <v>544.2849878838623</v>
       </c>
       <c r="W37" t="n">
-        <v>439.7429117071214</v>
+        <v>320.3549199297237</v>
       </c>
       <c r="X37" t="n">
-        <v>390.1047729083567</v>
+        <v>89.1024558250995</v>
       </c>
       <c r="Y37" t="n">
-        <v>349.6839394064934</v>
+        <v>48.68162232323616</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.71490395099</v>
+        <v>1262.714903950992</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589657</v>
+        <v>1062.395470589658</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227406</v>
+        <v>871.1858311227413</v>
       </c>
       <c r="E38" t="n">
-        <v>658.0144365347071</v>
+        <v>658.0144365347077</v>
       </c>
       <c r="F38" t="n">
-        <v>425.477571150737</v>
+        <v>425.4775711507375</v>
       </c>
       <c r="G38" t="n">
-        <v>191.6070241668297</v>
+        <v>191.6070241668299</v>
       </c>
       <c r="H38" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="I38" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="J38" t="n">
-        <v>170.2399954895711</v>
+        <v>170.2399954895712</v>
       </c>
       <c r="K38" t="n">
-        <v>487.566824846252</v>
+        <v>487.5668248462521</v>
       </c>
       <c r="L38" t="n">
-        <v>931.2088235200458</v>
+        <v>627.9818341408427</v>
       </c>
       <c r="M38" t="n">
-        <v>967.8095301389135</v>
+        <v>1127.768696688009</v>
       </c>
       <c r="N38" t="n">
-        <v>1454.412638238932</v>
+        <v>1614.371804788028</v>
       </c>
       <c r="O38" t="n">
-        <v>1861.655165456458</v>
+        <v>2021.614332005553</v>
       </c>
       <c r="P38" t="n">
-        <v>2177.069780686703</v>
+        <v>2337.028947235799</v>
       </c>
       <c r="Q38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235799</v>
       </c>
       <c r="R38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235799</v>
       </c>
       <c r="S38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235799</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.9944989285</v>
+        <v>2296.994498928503</v>
       </c>
       <c r="U38" t="n">
-        <v>2223.773017088838</v>
+        <v>2223.77301708884</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.408068290639</v>
+        <v>2068.408068290641</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.487463454099</v>
+        <v>1887.487463454101</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.071648281452</v>
+        <v>1687.071648281454</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.14411816315</v>
+        <v>1475.144118163151</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>907.3871668486402</v>
+        <v>725.7728415427837</v>
       </c>
       <c r="C39" t="n">
-        <v>745.6834940895949</v>
+        <v>564.0691687837384</v>
       </c>
       <c r="D39" t="n">
-        <v>606.844857079807</v>
+        <v>425.2305317739505</v>
       </c>
       <c r="E39" t="n">
-        <v>459.8168471366782</v>
+        <v>366.8088440373284</v>
       </c>
       <c r="F39" t="n">
-        <v>325.1230490865526</v>
+        <v>232.1150459872027</v>
       </c>
       <c r="G39" t="n">
-        <v>196.7258044403237</v>
+        <v>103.7178013409739</v>
       </c>
       <c r="H39" t="n">
-        <v>99.98717609987852</v>
+        <v>103.7178013409739</v>
       </c>
       <c r="I39" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="J39" t="n">
-        <v>46.74057894471591</v>
+        <v>137.6682921867591</v>
       </c>
       <c r="K39" t="n">
-        <v>46.74057894471591</v>
+        <v>419.5848558663448</v>
       </c>
       <c r="L39" t="n">
-        <v>158.5660196205224</v>
+        <v>855.8999427581039</v>
       </c>
       <c r="M39" t="n">
-        <v>725.8616612684995</v>
+        <v>1423.195584406081</v>
       </c>
       <c r="N39" t="n">
-        <v>1304.276325709359</v>
+        <v>1423.195584406081</v>
       </c>
       <c r="O39" t="n">
-        <v>1773.721946298055</v>
+        <v>1892.641204994777</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.814325690445</v>
+        <v>2137.814325690449</v>
       </c>
       <c r="Q39" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235799</v>
       </c>
       <c r="R39" t="n">
-        <v>2297.811566306037</v>
+        <v>2297.81156630604</v>
       </c>
       <c r="S39" t="n">
-        <v>2151.165001795139</v>
+        <v>2151.165001795142</v>
       </c>
       <c r="T39" t="n">
-        <v>1963.815089402866</v>
+        <v>1963.815089402869</v>
       </c>
       <c r="U39" t="n">
-        <v>1745.342090115024</v>
+        <v>1745.342090115027</v>
       </c>
       <c r="V39" t="n">
-        <v>1698.560792869217</v>
+        <v>1516.946467563361</v>
       </c>
       <c r="W39" t="n">
-        <v>1457.244924102527</v>
+        <v>1275.630598796671</v>
       </c>
       <c r="X39" t="n">
-        <v>1259.327935980322</v>
+        <v>1077.713610674466</v>
       </c>
       <c r="Y39" t="n">
-        <v>1066.806609629901</v>
+        <v>885.1922843240446</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.3826142353738</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="C40" t="n">
-        <v>215.3826142353738</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="D40" t="n">
-        <v>215.3826142353738</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="E40" t="n">
-        <v>215.3826142353738</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="F40" t="n">
-        <v>215.3826142353738</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="G40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="H40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="I40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="J40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471597</v>
       </c>
       <c r="K40" t="n">
-        <v>111.9679293424035</v>
+        <v>111.9679293424036</v>
       </c>
       <c r="L40" t="n">
         <v>253.0417694647197</v>
       </c>
       <c r="M40" t="n">
-        <v>413.701800915204</v>
+        <v>413.7018009152041</v>
       </c>
       <c r="N40" t="n">
         <v>573.7761533798821</v>
@@ -7357,25 +7357,25 @@
         <v>806.6004188827103</v>
       </c>
       <c r="S40" t="n">
-        <v>646.9844859418442</v>
+        <v>779.3447677344434</v>
       </c>
       <c r="T40" t="n">
-        <v>596.6064514315765</v>
+        <v>547.352407918316</v>
       </c>
       <c r="U40" t="n">
-        <v>491.045685226981</v>
+        <v>441.7916417137203</v>
       </c>
       <c r="V40" t="n">
-        <v>411.9247060912633</v>
+        <v>362.6706625780024</v>
       </c>
       <c r="W40" t="n">
-        <v>307.3826299145219</v>
+        <v>258.1285864012609</v>
       </c>
       <c r="X40" t="n">
-        <v>257.7444911157573</v>
+        <v>208.4904476024961</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.323657613894</v>
+        <v>48.68162232323634</v>
       </c>
     </row>
     <row r="41">
@@ -7391,70 +7391,70 @@
         <v>1064.566702132425</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849057</v>
+        <v>872.9446969849056</v>
       </c>
       <c r="E41" t="n">
         <v>659.3609367162692</v>
       </c>
       <c r="F41" t="n">
-        <v>426.411705651696</v>
+        <v>426.4117056516964</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1287929871846</v>
+        <v>192.1287929871843</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I41" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J41" t="n">
         <v>170.3493986293229</v>
       </c>
       <c r="K41" t="n">
-        <v>487.6762279860039</v>
+        <v>189.8099924546349</v>
       </c>
       <c r="L41" t="n">
-        <v>931.3182266597978</v>
+        <v>633.4519911284287</v>
       </c>
       <c r="M41" t="n">
-        <v>1431.105089206964</v>
+        <v>1133.238853675595</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.12532244405</v>
+        <v>1619.841961775614</v>
       </c>
       <c r="O41" t="n">
-        <v>1867.12532244405</v>
+        <v>2027.08448899314</v>
       </c>
       <c r="P41" t="n">
-        <v>2182.539937674295</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="Q41" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R41" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S41" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.052290235491</v>
+        <v>2302.052290235488</v>
       </c>
       <c r="U41" t="n">
-        <v>2228.418442715225</v>
+        <v>2228.418442715223</v>
       </c>
       <c r="V41" t="n">
-        <v>2072.641128236422</v>
+        <v>2072.641128236421</v>
       </c>
       <c r="W41" t="n">
-        <v>1891.30815771928</v>
+        <v>1891.308157719279</v>
       </c>
       <c r="X41" t="n">
-        <v>1690.47997686603</v>
+        <v>1690.479976866029</v>
       </c>
       <c r="Y41" t="n">
-        <v>1478.140081067124</v>
+        <v>1478.140081067123</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>911.2271952294874</v>
+        <v>877.8895630412678</v>
       </c>
       <c r="C42" t="n">
-        <v>749.5235224704421</v>
+        <v>716.1858902822225</v>
       </c>
       <c r="D42" t="n">
-        <v>610.6848854606542</v>
+        <v>577.3472532724346</v>
       </c>
       <c r="E42" t="n">
-        <v>463.6568755175254</v>
+        <v>463.6568755175252</v>
       </c>
       <c r="F42" t="n">
-        <v>328.9630774673997</v>
+        <v>328.9630774673996</v>
       </c>
       <c r="G42" t="n">
-        <v>200.5658328211708</v>
+        <v>200.5658328211707</v>
       </c>
       <c r="H42" t="n">
         <v>103.8272044807256</v>
       </c>
       <c r="I42" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J42" t="n">
-        <v>46.84998208446775</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="K42" t="n">
-        <v>328.7665457640534</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="L42" t="n">
-        <v>765.0816326558127</v>
+        <v>574.0927822182699</v>
       </c>
       <c r="M42" t="n">
-        <v>765.0816326558127</v>
+        <v>1141.388423866247</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.850160951101</v>
+        <v>1309.746482696948</v>
       </c>
       <c r="O42" t="n">
-        <v>1814.295781539797</v>
+        <v>1779.192103285644</v>
       </c>
       <c r="P42" t="n">
-        <v>2178.388160932187</v>
+        <v>2143.284482678035</v>
       </c>
       <c r="Q42" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R42" t="n">
-        <v>2303.281723293629</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="S42" t="n">
-        <v>2303.281723293629</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="T42" t="n">
-        <v>2115.931810901356</v>
+        <v>2115.931810901353</v>
       </c>
       <c r="U42" t="n">
-        <v>1930.796443801731</v>
+        <v>1897.458811613511</v>
       </c>
       <c r="V42" t="n">
-        <v>1702.400821250065</v>
+        <v>1669.063189061845</v>
       </c>
       <c r="W42" t="n">
-        <v>1461.084952483375</v>
+        <v>1427.747320295155</v>
       </c>
       <c r="X42" t="n">
-        <v>1263.167964361169</v>
+        <v>1229.83033217295</v>
       </c>
       <c r="Y42" t="n">
-        <v>1070.646638010748</v>
+        <v>1037.309005822529</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.3514140976437</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I43" t="n">
-        <v>87.27288742679919</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821553</v>
       </c>
       <c r="L43" t="n">
-        <v>253.1511726044715</v>
+        <v>253.1511726044714</v>
       </c>
       <c r="M43" t="n">
         <v>413.8112040549559</v>
@@ -7594,25 +7594,25 @@
         <v>806.709822022462</v>
       </c>
       <c r="S43" t="n">
-        <v>779.0418051935923</v>
+        <v>779.0418051935925</v>
       </c>
       <c r="T43" t="n">
-        <v>728.2514050027214</v>
+        <v>728.2514050027219</v>
       </c>
       <c r="U43" t="n">
-        <v>622.2782731175229</v>
+        <v>441.0763134922668</v>
       </c>
       <c r="V43" t="n">
-        <v>542.744928301202</v>
+        <v>361.5429686759462</v>
       </c>
       <c r="W43" t="n">
-        <v>437.7904864438576</v>
+        <v>256.5885268186021</v>
       </c>
       <c r="X43" t="n">
-        <v>206.5380223392334</v>
+        <v>206.5380223392346</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.704823156767</v>
+        <v>165.7048231567685</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.298501174362</v>
+        <v>1265.29850117436</v>
       </c>
       <c r="C44" t="n">
-        <v>1064.566702132426</v>
+        <v>1064.566702132424</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849059</v>
+        <v>872.9446969849046</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162686</v>
+        <v>659.360936716268</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516955</v>
+        <v>426.411705651695</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1287929871846</v>
+        <v>192.1287929871845</v>
       </c>
       <c r="H44" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I44" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J44" t="n">
         <v>170.3493986293229</v>
       </c>
       <c r="K44" t="n">
-        <v>487.6762279860039</v>
+        <v>487.6762279860038</v>
       </c>
       <c r="L44" t="n">
-        <v>931.3182266597978</v>
+        <v>487.6762279860038</v>
       </c>
       <c r="M44" t="n">
-        <v>1431.105089206964</v>
+        <v>987.4630905331699</v>
       </c>
       <c r="N44" t="n">
-        <v>1917.708197306983</v>
+        <v>1459.882795226522</v>
       </c>
       <c r="O44" t="n">
-        <v>1917.708197306983</v>
+        <v>1867.125322444047</v>
       </c>
       <c r="P44" t="n">
-        <v>2182.539937674295</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q44" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R44" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S44" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.052290235491</v>
+        <v>2302.052290235488</v>
       </c>
       <c r="U44" t="n">
-        <v>2228.418442715225</v>
+        <v>2228.418442715222</v>
       </c>
       <c r="V44" t="n">
-        <v>2072.641128236422</v>
+        <v>2072.641128236421</v>
       </c>
       <c r="W44" t="n">
-        <v>1891.30815771928</v>
+        <v>1891.308157719278</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.47997686603</v>
+        <v>1690.479976866028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1478.140081067125</v>
+        <v>1478.140081067123</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>814.4885668890421</v>
+        <v>731.2429985303697</v>
       </c>
       <c r="C45" t="n">
-        <v>652.7848941299968</v>
+        <v>569.5393257713245</v>
       </c>
       <c r="D45" t="n">
-        <v>513.9462571202089</v>
+        <v>430.7006887615365</v>
       </c>
       <c r="E45" t="n">
-        <v>366.9182471770802</v>
+        <v>283.6726788184077</v>
       </c>
       <c r="F45" t="n">
-        <v>232.2244491269545</v>
+        <v>148.9788807682821</v>
       </c>
       <c r="G45" t="n">
-        <v>103.8272044807256</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H45" t="n">
-        <v>103.8272044807256</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I45" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J45" t="n">
-        <v>46.84998208446775</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="K45" t="n">
-        <v>46.84998208446775</v>
+        <v>137.7776953265108</v>
       </c>
       <c r="L45" t="n">
-        <v>361.8969342990354</v>
+        <v>574.0927822182699</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1925759470124</v>
+        <v>1141.388423866247</v>
       </c>
       <c r="N45" t="n">
-        <v>1508.961104242301</v>
+        <v>1721.156952161535</v>
       </c>
       <c r="O45" t="n">
-        <v>1978.406724830997</v>
+        <v>1779.192103285644</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.499104223387</v>
+        <v>2143.284482678035</v>
       </c>
       <c r="Q45" t="n">
-        <v>2342.499104223387</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R45" t="n">
-        <v>2303.281723293629</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="S45" t="n">
-        <v>2156.635158782731</v>
+        <v>2156.635158782728</v>
       </c>
       <c r="T45" t="n">
-        <v>1969.285246390458</v>
+        <v>1969.285246390455</v>
       </c>
       <c r="U45" t="n">
-        <v>1750.812247102616</v>
+        <v>1750.812247102613</v>
       </c>
       <c r="V45" t="n">
-        <v>1522.41662455095</v>
+        <v>1522.416624550947</v>
       </c>
       <c r="W45" t="n">
-        <v>1281.10075578426</v>
+        <v>1281.100755784257</v>
       </c>
       <c r="X45" t="n">
-        <v>1166.429336020724</v>
+        <v>1083.183767662052</v>
       </c>
       <c r="Y45" t="n">
-        <v>973.908009670303</v>
+        <v>890.6624413116307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.3514140976437</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C46" t="n">
-        <v>163.3514140976437</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D46" t="n">
-        <v>163.3514140976437</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E46" t="n">
-        <v>163.3514140976437</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F46" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G46" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H46" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I46" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J46" t="n">
-        <v>46.84998208446775</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K46" t="n">
         <v>112.0773324821553</v>
       </c>
       <c r="L46" t="n">
-        <v>253.1511726044715</v>
+        <v>253.1511726044714</v>
       </c>
       <c r="M46" t="n">
         <v>413.8112040549559</v>
@@ -7831,25 +7831,25 @@
         <v>806.709822022462</v>
       </c>
       <c r="S46" t="n">
-        <v>779.0418051935923</v>
+        <v>597.8398455683357</v>
       </c>
       <c r="T46" t="n">
-        <v>728.2514050027214</v>
+        <v>547.049445377465</v>
       </c>
       <c r="U46" t="n">
-        <v>622.2782731175229</v>
+        <v>441.0763134922665</v>
       </c>
       <c r="V46" t="n">
-        <v>542.744928301202</v>
+        <v>361.5429686759458</v>
       </c>
       <c r="W46" t="n">
-        <v>437.7904864438576</v>
+        <v>140.0870948054248</v>
       </c>
       <c r="X46" t="n">
-        <v>387.7399819644899</v>
+        <v>90.03659032605715</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.704823156767</v>
+        <v>49.20339114359088</v>
       </c>
     </row>
   </sheetData>
@@ -8690,25 +8690,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8568854771797</v>
+        <v>394.9465076480839</v>
       </c>
       <c r="L11" t="n">
-        <v>94.83634793195525</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M11" t="n">
-        <v>373.6220010174789</v>
+        <v>79.53237884657511</v>
       </c>
       <c r="N11" t="n">
-        <v>234.4930385209173</v>
+        <v>367.0077449856679</v>
       </c>
       <c r="O11" t="n">
-        <v>377.7737697139619</v>
+        <v>377.7737697139622</v>
       </c>
       <c r="P11" t="n">
-        <v>393.8273213491393</v>
+        <v>99.7376991782355</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.4345721517223</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8772,19 +8772,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>335.4597610737248</v>
+        <v>41.37013890282101</v>
       </c>
       <c r="M12" t="n">
-        <v>32.39068222047752</v>
+        <v>324.9398685778213</v>
       </c>
       <c r="N12" t="n">
-        <v>21.4226904357092</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O12" t="n">
-        <v>37.83351951561109</v>
+        <v>331.9231416865152</v>
       </c>
       <c r="P12" t="n">
-        <v>338.7807053949271</v>
+        <v>46.23151903758416</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07871432485221</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K14" t="n">
-        <v>394.946507648084</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L14" t="n">
-        <v>215.4686454201035</v>
+        <v>215.4686454201032</v>
       </c>
       <c r="M14" t="n">
-        <v>79.53237884657493</v>
+        <v>373.6220010174787</v>
       </c>
       <c r="N14" t="n">
-        <v>77.03271072545894</v>
+        <v>77.03271072545913</v>
       </c>
       <c r="O14" t="n">
-        <v>377.7737697139622</v>
+        <v>377.7737697139617</v>
       </c>
       <c r="P14" t="n">
-        <v>393.8273213491397</v>
+        <v>393.8273213491391</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,25 +9003,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>335.4597610737252</v>
+        <v>335.4597610737246</v>
       </c>
       <c r="M15" t="n">
-        <v>324.9398685778216</v>
+        <v>32.39068222047764</v>
       </c>
       <c r="N15" t="n">
-        <v>21.4226904357092</v>
+        <v>315.512312606613</v>
       </c>
       <c r="O15" t="n">
-        <v>37.83351951561109</v>
+        <v>37.83351951561121</v>
       </c>
       <c r="P15" t="n">
-        <v>46.23151903758406</v>
+        <v>136.5372582159854</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>95.0787143248523</v>
       </c>
       <c r="K17" t="n">
-        <v>390.831919737389</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L17" t="n">
-        <v>94.83634793195542</v>
+        <v>388.925970102859</v>
       </c>
       <c r="M17" t="n">
-        <v>373.6220010174794</v>
+        <v>79.53237884657511</v>
       </c>
       <c r="N17" t="n">
-        <v>77.03271072545913</v>
+        <v>371.1223328963628</v>
       </c>
       <c r="O17" t="n">
-        <v>83.68414754305806</v>
+        <v>377.7737697139617</v>
       </c>
       <c r="P17" t="n">
-        <v>393.8273213491398</v>
+        <v>220.3699966663833</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9243,25 +9243,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>342.2643723027922</v>
+        <v>249.4016405817356</v>
       </c>
       <c r="L18" t="n">
-        <v>41.37013890282101</v>
+        <v>335.4597610737247</v>
       </c>
       <c r="M18" t="n">
-        <v>32.39068222047764</v>
+        <v>326.4803043913813</v>
       </c>
       <c r="N18" t="n">
-        <v>315.5123126066136</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O18" t="n">
-        <v>37.83351951561121</v>
+        <v>331.9231416865148</v>
       </c>
       <c r="P18" t="n">
-        <v>340.3211412084885</v>
+        <v>46.23151903758416</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,25 +9401,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>390.831919737389</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L20" t="n">
-        <v>94.83634793195542</v>
+        <v>252.2966757274132</v>
       </c>
       <c r="M20" t="n">
-        <v>373.6220010174794</v>
+        <v>373.6220010174787</v>
       </c>
       <c r="N20" t="n">
-        <v>371.1223328963634</v>
+        <v>371.1223328963628</v>
       </c>
       <c r="O20" t="n">
         <v>83.68414754305806</v>
       </c>
       <c r="P20" t="n">
-        <v>99.7376991782355</v>
+        <v>393.8273213491391</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517224</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939697</v>
       </c>
       <c r="L21" t="n">
-        <v>335.4597610737253</v>
+        <v>335.4597610737246</v>
       </c>
       <c r="M21" t="n">
         <v>32.39068222047764</v>
       </c>
       <c r="N21" t="n">
-        <v>315.5123126066136</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O21" t="n">
-        <v>37.83351951561121</v>
+        <v>321.057289439005</v>
       </c>
       <c r="P21" t="n">
-        <v>245.9179736738726</v>
+        <v>340.3211412084878</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.87358360675529</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.0787143248523</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>394.9465076480842</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L23" t="n">
-        <v>388.9259701028597</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M23" t="n">
-        <v>79.53237884657511</v>
+        <v>373.6220010174787</v>
       </c>
       <c r="N23" t="n">
-        <v>371.1223328963634</v>
+        <v>367.0077449856669</v>
       </c>
       <c r="O23" t="n">
-        <v>83.68414754305806</v>
+        <v>377.7737697139617</v>
       </c>
       <c r="P23" t="n">
-        <v>381.9449123725375</v>
+        <v>99.7376991782355</v>
       </c>
       <c r="Q23" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056878</v>
       </c>
       <c r="K24" t="n">
         <v>59.04060237939697</v>
       </c>
       <c r="L24" t="n">
-        <v>231.7311771051604</v>
+        <v>41.37013890282101</v>
       </c>
       <c r="M24" t="n">
-        <v>326.480304391382</v>
+        <v>326.4803043913813</v>
       </c>
       <c r="N24" t="n">
-        <v>21.42269043570934</v>
+        <v>315.512312606613</v>
       </c>
       <c r="O24" t="n">
-        <v>331.9231416865155</v>
+        <v>331.9231416865148</v>
       </c>
       <c r="P24" t="n">
-        <v>340.3211412084885</v>
+        <v>127.211841782037</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.87358360675529</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>70.79084509866883</v>
       </c>
       <c r="N30" t="n">
-        <v>88.5193488702874</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10431,10 +10431,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>240.5397765599768</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>363.8639105404798</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>200.0840267393478</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>112.0484323611034</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>114.4345721517224</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,19 +10665,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>223.6843447863299</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>32.39068222047764</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>605.6799272446583</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O36" t="n">
-        <v>380.6692155752999</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10826,10 +10826,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>236.6696906537641</v>
       </c>
       <c r="M38" t="n">
-        <v>116.5027895727041</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517224</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,25 +10899,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>59.04060237939697</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>154.3251294844437</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>605.6799272446583</v>
+        <v>21.42269043570934</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>293.8811359018993</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>120.514050957293</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11069,16 +11069,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>517.457188742718</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>83.68414754305806</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517224</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939697</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>32.39068222047764</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>607.0474664915562</v>
+        <v>191.4813357192458</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>237.6422131938259</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11300,19 +11300,19 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>94.83634793195542</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>554.2243316278347</v>
       </c>
       <c r="O44" t="n">
-        <v>83.68414754305806</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>367.2445076300663</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,28 +11373,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.07217095056878</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>59.04060237939697</v>
       </c>
       <c r="L45" t="n">
-        <v>359.5993835640004</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>607.0474664915562</v>
+        <v>607.0474664915555</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>96.45488428743872</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.87358360675529</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.7134039554109</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>197.7060249576206</v>
       </c>
       <c r="E11" t="n">
-        <v>219.448162527526</v>
+        <v>11.44456740189403</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>238.6199786155033</v>
       </c>
       <c r="G11" t="n">
-        <v>226.66076853231</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>151.8262626552655</v>
+        <v>151.8262626552656</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>48.04258570959378</v>
       </c>
       <c r="U11" t="n">
-        <v>80.89774890663898</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>162.2197811955899</v>
+        <v>162.21978119559</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5198806735468</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>206.8201389062934</v>
+        <v>206.8201389062936</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>197.7060249576205</v>
       </c>
       <c r="E14" t="n">
-        <v>219.448162527526</v>
+        <v>219.4481625275261</v>
       </c>
       <c r="F14" t="n">
         <v>238.6199786155032</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>239.9403233994415</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>48.04258570959362</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.89774890663898</v>
+        <v>80.89774890663901</v>
       </c>
       <c r="V14" t="n">
-        <v>162.2197811955899</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>106.9542423351767</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.73374057160464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731945.5922212441</v>
+        <v>731945.592221244</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731945.5922212442</v>
+        <v>731945.5922212439</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820449.1283582174</v>
+        <v>820449.1283582172</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>820449.1283582174</v>
+        <v>820449.1283582172</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>820449.1283582174</v>
+        <v>820449.1283582172</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>890534.8657443277</v>
+        <v>890534.8657443279</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>890865.1748198007</v>
+        <v>890865.1748198005</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>890865.1748198007</v>
+        <v>890865.1748198005</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>650995.1367812087</v>
       </c>
       <c r="D2" t="n">
-        <v>650995.1367812088</v>
+        <v>650995.1367812089</v>
       </c>
       <c r="E2" t="n">
-        <v>568893.7784018025</v>
+        <v>568893.7784018022</v>
       </c>
       <c r="F2" t="n">
-        <v>568893.7784018025</v>
+        <v>568893.7784018026</v>
       </c>
       <c r="G2" t="n">
-        <v>652480.4514200541</v>
+        <v>652480.4514200554</v>
       </c>
       <c r="H2" t="n">
-        <v>652480.4514200541</v>
+        <v>652480.4514200551</v>
       </c>
       <c r="I2" t="n">
-        <v>652480.4514200548</v>
+        <v>652480.4514200552</v>
       </c>
       <c r="J2" t="n">
         <v>652480.4514200552</v>
       </c>
       <c r="K2" t="n">
+        <v>652480.4514200545</v>
+      </c>
+      <c r="L2" t="n">
+        <v>652480.4514200555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>652480.4514200545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>652480.4514200551</v>
+      </c>
+      <c r="O2" t="n">
         <v>652480.4514200548</v>
       </c>
-      <c r="L2" t="n">
-        <v>652480.4514200554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>652480.4514200549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>652480.4514200544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>652480.4514200551</v>
-      </c>
       <c r="P2" t="n">
-        <v>652480.4514200552</v>
+        <v>652480.4514200548</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.9880429471</v>
+        <v>347410.9880429467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80469.26609315908</v>
+        <v>80469.26609315928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.372680161348399e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>153193.9940866783</v>
+        <v>153193.9940866781</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.10818431354486e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315909</v>
+        <v>80469.26609315918</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004399</v>
+        <v>63042.68593004411</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873052484</v>
+        <v>329.0996873048927</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,10 +26442,10 @@
         <v>358899.80321999</v>
       </c>
       <c r="K4" t="n">
+        <v>358899.8032199901</v>
+      </c>
+      <c r="L4" t="n">
         <v>358899.80321999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>358899.8032199901</v>
       </c>
       <c r="M4" t="n">
         <v>360570.8158019183</v>
@@ -26457,7 +26457,7 @@
         <v>360532.5601904277</v>
       </c>
       <c r="P4" t="n">
-        <v>360532.5601904277</v>
+        <v>360532.5601904276</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501298</v>
+        <v>35612.93854501296</v>
       </c>
       <c r="F5" t="n">
-        <v>35612.93854501299</v>
+        <v>35612.93854501295</v>
       </c>
       <c r="G5" t="n">
-        <v>44069.15195899524</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="H5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="I5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="J5" t="n">
         <v>65217.75175230238</v>
@@ -26497,19 +26497,19 @@
         <v>65217.75175230239</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.75175230239</v>
+        <v>65217.75175230237</v>
       </c>
       <c r="M5" t="n">
         <v>53962.02217862751</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.02217862751</v>
+        <v>53962.02217862754</v>
       </c>
       <c r="O5" t="n">
-        <v>54010.84806614031</v>
+        <v>54010.84806614029</v>
       </c>
       <c r="P5" t="n">
-        <v>54010.84806614031</v>
+        <v>54010.84806614028</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193073.8853139425</v>
+        <v>193069.5167414754</v>
       </c>
       <c r="C6" t="n">
-        <v>193073.8853139425</v>
+        <v>193069.5167414754</v>
       </c>
       <c r="D6" t="n">
-        <v>193073.8853139427</v>
+        <v>193069.5167414756</v>
       </c>
       <c r="E6" t="n">
-        <v>-126690.4557303979</v>
+        <v>-126936.2988863339</v>
       </c>
       <c r="F6" t="n">
-        <v>220720.5323125491</v>
+        <v>220474.6891566133</v>
       </c>
       <c r="G6" t="n">
-        <v>159254.0541588335</v>
+        <v>159254.0541588346</v>
       </c>
       <c r="H6" t="n">
-        <v>239723.3202519926</v>
+        <v>239723.3202519937</v>
       </c>
       <c r="I6" t="n">
-        <v>239723.3202519933</v>
+        <v>239723.3202519937</v>
       </c>
       <c r="J6" t="n">
-        <v>75168.90236108456</v>
+        <v>75168.90236108485</v>
       </c>
       <c r="K6" t="n">
-        <v>228362.8964477624</v>
+        <v>228362.8964477619</v>
       </c>
       <c r="L6" t="n">
         <v>147893.6303546038</v>
       </c>
       <c r="M6" t="n">
-        <v>174904.9275094651</v>
+        <v>174904.9275094646</v>
       </c>
       <c r="N6" t="n">
-        <v>237947.6134395087</v>
+        <v>237947.6134395093</v>
       </c>
       <c r="O6" t="n">
-        <v>237607.9434761818</v>
+        <v>237607.9434761819</v>
       </c>
       <c r="P6" t="n">
-        <v>237937.0431634872</v>
+        <v>237937.0431634869</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="F2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="G2" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H2" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I2" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="J2" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="K2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L2" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="M2" t="n">
         <v>179.798182052801</v>
       </c>
       <c r="N2" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="O2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="P2" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4646244791971</v>
+        <v>152.4646244791968</v>
       </c>
       <c r="F3" t="n">
-        <v>152.4646244791971</v>
+        <v>152.4646244791968</v>
       </c>
       <c r="G3" t="n">
         <v>152.4646244791968</v>
@@ -26762,7 +26762,7 @@
         <v>152.4646244791968</v>
       </c>
       <c r="K3" t="n">
-        <v>152.464624479197</v>
+        <v>152.4646244791968</v>
       </c>
       <c r="L3" t="n">
         <v>152.4646244791968</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="F4" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="G4" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="H4" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="I4" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="J4" t="n">
         <v>878.3468589798529</v>
@@ -26820,16 +26820,16 @@
         <v>878.3468589798529</v>
       </c>
       <c r="M4" t="n">
-        <v>584.257236808949</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="N4" t="n">
-        <v>584.2572368089488</v>
+        <v>584.2572368089496</v>
       </c>
       <c r="O4" t="n">
-        <v>585.6247760558468</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="P4" t="n">
-        <v>585.6247760558468</v>
+        <v>585.6247760558462</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.5865826164491</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.965850201685498e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4082420237971291</v>
+        <v>0.4082420237966516</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.586582616449</v>
       </c>
       <c r="M2" t="n">
-        <v>78.80335741255499</v>
+        <v>78.80335741255514</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4646244791971</v>
+        <v>152.4646244791968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089486</v>
+        <v>584.2572368089493</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246897991</v>
+        <v>1.367539246896513</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.5865826164491</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.965850201685498e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4082420237971291</v>
+        <v>0.4082420237966516</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.385230391931075e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="C11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="D11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="E11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="F11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="G11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="H11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="I11" t="n">
         <v>147.459308470692</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.23037211170272</v>
+        <v>51.23037211170278</v>
       </c>
       <c r="S11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="T11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="U11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="V11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="W11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="X11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>87.49055593466052</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>11.34192316408181</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I12" t="n">
-        <v>56.4074501722953</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>171.389700167428</v>
       </c>
       <c r="V12" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>171.389700167428</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28257,7 +28257,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
         <v>166.9556149377512</v>
@@ -28269,7 +28269,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J13" t="n">
-        <v>40.0186762889081</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R13" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="T13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="U13" t="n">
-        <v>171.3897001674282</v>
+        <v>76.32969322657067</v>
       </c>
       <c r="V13" t="n">
-        <v>106.7509193989557</v>
+        <v>171.389700167428</v>
       </c>
       <c r="W13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="X13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.389700167428</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="D14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="E14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="G14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="H14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="I14" t="n">
         <v>147.459308470692</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.23037211170272</v>
+        <v>51.23037211170278</v>
       </c>
       <c r="S14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="T14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="X14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="15">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>87.4905559346619</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.1132721997666</v>
@@ -28424,7 +28424,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I15" t="n">
-        <v>56.4074501722953</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.82520712046108</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2536418343802893</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y15" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28506,7 +28506,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J16" t="n">
-        <v>40.0186762889081</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.1298096364891</v>
+        <v>15.12980963648914</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S16" t="n">
-        <v>76.32969322656922</v>
+        <v>112.0549615054146</v>
       </c>
       <c r="T16" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U16" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V16" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="X16" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="C17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="D17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="E17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="F17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="G17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I17" t="n">
         <v>147.459308470692</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="W17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -28655,7 +28655,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>95.77124205704071</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>31.07841711518103</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>95.5644369960783</v>
       </c>
     </row>
     <row r="19">
@@ -28725,16 +28725,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H19" t="n">
         <v>155.3344859367049</v>
@@ -28743,7 +28743,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.12980963648914</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>206.781276689585</v>
@@ -28776,19 +28776,19 @@
         <v>229.6724362179661</v>
       </c>
       <c r="U19" t="n">
-        <v>271.976282783877</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>172.0976538825136</v>
       </c>
       <c r="W19" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.1594161643519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="C20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="D20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="E20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="F20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="G20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I20" t="n">
         <v>147.459308470692</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="W20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
     </row>
     <row r="21">
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>52.07585635192846</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H21" t="n">
         <v>95.77124205704071</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
         <v>216.2882692949636</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.6070678949641</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,25 +28956,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I22" t="n">
         <v>134.4929323504436</v>
@@ -29010,16 +29010,16 @@
         <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>257.1486128696495</v>
       </c>
       <c r="V22" t="n">
-        <v>153.6727157085258</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="C23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="D23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="E23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="F23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="G23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I23" t="n">
         <v>147.459308470692</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="W23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.75929744044778</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -29126,7 +29126,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1132721997666</v>
@@ -29135,7 +29135,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.82520712046112</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>69.56799526534854</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29211,13 +29211,13 @@
         <v>166.9556149377512</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>188.4784199654377</v>
+        <v>120.7509791749369</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>271.976282783877</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.976282783877</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29296,19 +29296,19 @@
         <v>100.9948246402459</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="M26" t="n">
+        <v>40.87787536901698</v>
+      </c>
+      <c r="N26" t="n">
         <v>100.9948246402459</v>
-      </c>
-      <c r="N26" t="n">
-        <v>90.64232789756005</v>
       </c>
       <c r="O26" t="n">
         <v>100.9948246402459</v>
@@ -29320,7 +29320,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="R26" t="n">
-        <v>51.23037211170278</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="S26" t="n">
         <v>100.9948246402459</v>
@@ -29457,7 +29457,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="K28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402454</v>
       </c>
       <c r="L28" t="n">
         <v>100.9948246402459</v>
@@ -29469,7 +29469,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9948246402457</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="P28" t="n">
         <v>100.9948246402459</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L29" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901726</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N29" t="n">
-        <v>40.87787536901612</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="C32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="D32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="E32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="F32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="G32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="H32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="I32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>40.87787536901801</v>
       </c>
       <c r="K32" t="n">
-        <v>40.87787536901692</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="L32" t="n">
-        <v>100.994824640246</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="N32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="O32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="P32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="R32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="S32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="T32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="U32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="V32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="W32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="X32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="C34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="D34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="E34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="F34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="G34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="H34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="I34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9948246402452</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="K34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="L34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="M34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402479</v>
       </c>
       <c r="N34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="O34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="P34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="R34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="S34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="T34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="U34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="V34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="W34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="X34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.994824640246</v>
+        <v>100.9948246402458</v>
       </c>
     </row>
     <row r="35">
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I36" t="n">
-        <v>3.693318988683885</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,10 +30113,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>87.720258984445</v>
       </c>
       <c r="T36" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30153,10 +30153,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>19.91916944980724</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H37" t="n">
         <v>155.3344859367049</v>
@@ -30204,10 +30204,10 @@
         <v>179.798182052801</v>
       </c>
       <c r="W37" t="n">
-        <v>179.798182052801</v>
+        <v>61.60407019317771</v>
       </c>
       <c r="X37" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>179.798182052801</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="D38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="E38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="F38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="G38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="H38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="I38" t="n">
         <v>147.459308470692</v>
@@ -30274,22 +30274,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="U38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
     </row>
     <row r="39">
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>87.72025898444164</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I39" t="n">
-        <v>3.693318988684325</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H40" t="n">
         <v>155.3344859367049</v>
@@ -30429,25 +30429,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S40" t="n">
-        <v>48.76150307812765</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="T40" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.798182052801</v>
+        <v>61.6040701931785</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="C41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="D41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="E41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="F41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="G41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="H41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="I41" t="n">
         <v>147.459308470692</v>
@@ -30511,22 +30511,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="U41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="V41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="W41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="X41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="Y41" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
     </row>
     <row r="42">
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>33.0042558663372</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>33.00425586633509</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.389940029004</v>
+        <v>64.05352233595822</v>
       </c>
       <c r="C43" t="n">
-        <v>92.60206843880044</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30639,7 +30639,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="T43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="U43" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="W43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290042</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="C44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="D44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="E44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="F44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="G44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="H44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="I44" t="n">
         <v>147.459308470692</v>
@@ -30748,22 +30748,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="U44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="V44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="W44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="X44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y44" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>26.00566250279032</v>
       </c>
       <c r="H45" t="n">
         <v>95.77124205704071</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.40745017229531</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>82.41311267508289</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>35.61943073143645</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.9556149377512</v>
@@ -30903,25 +30903,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S46" t="n">
-        <v>179.389940029004</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="U46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="V46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="W46" t="n">
-        <v>179.389940029004</v>
+        <v>64.05352233595909</v>
       </c>
       <c r="X46" t="n">
-        <v>179.389940029004</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>179.3899400290041</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6129231134842088</v>
+        <v>0.6129231134842078</v>
       </c>
       <c r="H11" t="n">
-        <v>6.277098835970155</v>
+        <v>6.277098835970144</v>
       </c>
       <c r="I11" t="n">
-        <v>23.62971833259998</v>
+        <v>23.62971833259994</v>
       </c>
       <c r="J11" t="n">
-        <v>52.02108310308041</v>
+        <v>52.02108310308033</v>
       </c>
       <c r="K11" t="n">
-        <v>77.96611849686698</v>
+        <v>77.96611849686686</v>
       </c>
       <c r="L11" t="n">
-        <v>96.72386423115937</v>
+        <v>96.7238642311592</v>
       </c>
       <c r="M11" t="n">
-        <v>107.6239356505842</v>
+        <v>107.623935650584</v>
       </c>
       <c r="N11" t="n">
-        <v>109.3654034467712</v>
+        <v>109.365403446771</v>
       </c>
       <c r="O11" t="n">
-        <v>103.2706492370626</v>
+        <v>103.2706492370624</v>
       </c>
       <c r="P11" t="n">
-        <v>88.13910987292115</v>
+        <v>88.139109872921</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.1888008712679</v>
+        <v>66.18880087126779</v>
       </c>
       <c r="R11" t="n">
-        <v>38.50153152740246</v>
+        <v>38.5015315274024</v>
       </c>
       <c r="S11" t="n">
-        <v>13.96698544852142</v>
+        <v>13.9669854485214</v>
       </c>
       <c r="T11" t="n">
-        <v>2.683070929277125</v>
+        <v>2.683070929277121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0490338490787367</v>
+        <v>0.04903384907873661</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3279427771816691</v>
+        <v>0.3279427771816686</v>
       </c>
       <c r="H12" t="n">
-        <v>3.167236821728226</v>
+        <v>3.167236821728221</v>
       </c>
       <c r="I12" t="n">
-        <v>11.29101228454431</v>
+        <v>11.29101228454429</v>
       </c>
       <c r="J12" t="n">
-        <v>30.98340071609796</v>
+        <v>30.98340071609791</v>
       </c>
       <c r="K12" t="n">
-        <v>52.9555667872698</v>
+        <v>52.95556678726971</v>
       </c>
       <c r="L12" t="n">
-        <v>71.2052946683269</v>
+        <v>71.20529466832677</v>
       </c>
       <c r="M12" t="n">
-        <v>83.09322034116238</v>
+        <v>83.09322034116225</v>
       </c>
       <c r="N12" t="n">
-        <v>85.29245063199912</v>
+        <v>85.29245063199897</v>
       </c>
       <c r="O12" t="n">
-        <v>78.02592909550002</v>
+        <v>78.02592909549989</v>
       </c>
       <c r="P12" t="n">
-        <v>62.62268698655927</v>
+        <v>62.62268698655916</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.86160783813728</v>
+        <v>41.86160783813721</v>
       </c>
       <c r="R12" t="n">
-        <v>20.36121909554259</v>
+        <v>20.36121909554256</v>
       </c>
       <c r="S12" t="n">
-        <v>6.091393251598105</v>
+        <v>6.091393251598094</v>
       </c>
       <c r="T12" t="n">
-        <v>1.321839527324359</v>
+        <v>1.321839527324357</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02157518270932035</v>
+        <v>0.02157518270932031</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2749362080772406</v>
+        <v>0.2749362080772401</v>
       </c>
       <c r="H13" t="n">
-        <v>2.444432831814013</v>
+        <v>2.444432831814009</v>
       </c>
       <c r="I13" t="n">
-        <v>8.268081602904655</v>
+        <v>8.26808160290464</v>
       </c>
       <c r="J13" t="n">
-        <v>19.43798991106091</v>
+        <v>19.43798991106087</v>
       </c>
       <c r="K13" t="n">
-        <v>31.94258853842849</v>
+        <v>31.94258853842843</v>
       </c>
       <c r="L13" t="n">
-        <v>40.87551588086539</v>
+        <v>40.87551588086532</v>
       </c>
       <c r="M13" t="n">
-        <v>43.09750032614416</v>
+        <v>43.09750032614409</v>
       </c>
       <c r="N13" t="n">
-        <v>42.07273809603812</v>
+        <v>42.07273809603805</v>
       </c>
       <c r="O13" t="n">
-        <v>38.86098330168125</v>
+        <v>38.86098330168119</v>
       </c>
       <c r="P13" t="n">
-        <v>33.25228465690552</v>
+        <v>33.25228465690546</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02215829635875</v>
+        <v>23.02215829635871</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3621316831821</v>
+        <v>12.36213168318208</v>
       </c>
       <c r="S13" t="n">
-        <v>4.791388280764273</v>
+        <v>4.791388280764265</v>
       </c>
       <c r="T13" t="n">
-        <v>1.174727434511846</v>
+        <v>1.174727434511844</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01499652044057678</v>
+        <v>0.01499652044057675</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6129231134842088</v>
+        <v>0.6129231134842078</v>
       </c>
       <c r="H14" t="n">
-        <v>6.277098835970155</v>
+        <v>6.277098835970144</v>
       </c>
       <c r="I14" t="n">
-        <v>23.62971833259998</v>
+        <v>23.62971833259994</v>
       </c>
       <c r="J14" t="n">
-        <v>52.02108310308041</v>
+        <v>52.02108310308033</v>
       </c>
       <c r="K14" t="n">
-        <v>77.96611849686698</v>
+        <v>77.96611849686686</v>
       </c>
       <c r="L14" t="n">
-        <v>96.72386423115937</v>
+        <v>96.7238642311592</v>
       </c>
       <c r="M14" t="n">
-        <v>107.6239356505842</v>
+        <v>107.623935650584</v>
       </c>
       <c r="N14" t="n">
-        <v>109.3654034467712</v>
+        <v>109.365403446771</v>
       </c>
       <c r="O14" t="n">
-        <v>103.2706492370626</v>
+        <v>103.2706492370624</v>
       </c>
       <c r="P14" t="n">
-        <v>88.13910987292115</v>
+        <v>88.139109872921</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.1888008712679</v>
+        <v>66.18880087126779</v>
       </c>
       <c r="R14" t="n">
-        <v>38.50153152740246</v>
+        <v>38.5015315274024</v>
       </c>
       <c r="S14" t="n">
-        <v>13.96698544852142</v>
+        <v>13.9669854485214</v>
       </c>
       <c r="T14" t="n">
-        <v>2.683070929277125</v>
+        <v>2.683070929277121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0490338490787367</v>
+        <v>0.04903384907873661</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3279427771816691</v>
+        <v>0.3279427771816686</v>
       </c>
       <c r="H15" t="n">
-        <v>3.167236821728226</v>
+        <v>3.167236821728221</v>
       </c>
       <c r="I15" t="n">
-        <v>11.29101228454431</v>
+        <v>11.29101228454429</v>
       </c>
       <c r="J15" t="n">
-        <v>30.98340071609796</v>
+        <v>30.98340071609791</v>
       </c>
       <c r="K15" t="n">
-        <v>52.9555667872698</v>
+        <v>52.95556678726971</v>
       </c>
       <c r="L15" t="n">
-        <v>71.2052946683269</v>
+        <v>71.20529466832677</v>
       </c>
       <c r="M15" t="n">
-        <v>83.09322034116238</v>
+        <v>83.09322034116225</v>
       </c>
       <c r="N15" t="n">
-        <v>85.29245063199912</v>
+        <v>85.29245063199897</v>
       </c>
       <c r="O15" t="n">
-        <v>78.02592909550002</v>
+        <v>78.02592909549989</v>
       </c>
       <c r="P15" t="n">
-        <v>62.62268698655927</v>
+        <v>62.62268698655916</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.86160783813728</v>
+        <v>41.86160783813721</v>
       </c>
       <c r="R15" t="n">
-        <v>20.36121909554259</v>
+        <v>20.36121909554256</v>
       </c>
       <c r="S15" t="n">
-        <v>6.091393251598105</v>
+        <v>6.091393251598094</v>
       </c>
       <c r="T15" t="n">
-        <v>1.321839527324359</v>
+        <v>1.321839527324357</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02157518270932035</v>
+        <v>0.02157518270932031</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2749362080772406</v>
+        <v>0.2749362080772401</v>
       </c>
       <c r="H16" t="n">
-        <v>2.444432831814013</v>
+        <v>2.444432831814009</v>
       </c>
       <c r="I16" t="n">
-        <v>8.268081602904655</v>
+        <v>8.26808160290464</v>
       </c>
       <c r="J16" t="n">
-        <v>19.43798991106091</v>
+        <v>19.43798991106087</v>
       </c>
       <c r="K16" t="n">
-        <v>31.94258853842849</v>
+        <v>31.94258853842843</v>
       </c>
       <c r="L16" t="n">
-        <v>40.87551588086539</v>
+        <v>40.87551588086532</v>
       </c>
       <c r="M16" t="n">
-        <v>43.09750032614416</v>
+        <v>43.09750032614409</v>
       </c>
       <c r="N16" t="n">
-        <v>42.07273809603812</v>
+        <v>42.07273809603805</v>
       </c>
       <c r="O16" t="n">
-        <v>38.86098330168125</v>
+        <v>38.86098330168119</v>
       </c>
       <c r="P16" t="n">
-        <v>33.25228465690552</v>
+        <v>33.25228465690546</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02215829635875</v>
+        <v>23.02215829635871</v>
       </c>
       <c r="R16" t="n">
-        <v>12.3621316831821</v>
+        <v>12.36213168318208</v>
       </c>
       <c r="S16" t="n">
-        <v>4.791388280764273</v>
+        <v>4.791388280764265</v>
       </c>
       <c r="T16" t="n">
-        <v>1.174727434511846</v>
+        <v>1.174727434511844</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01499652044057678</v>
+        <v>0.01499652044057675</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842086</v>
+        <v>0.6129231134842077</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970152</v>
+        <v>6.277098835970143</v>
       </c>
       <c r="I29" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259994</v>
       </c>
       <c r="J29" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308031</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686695</v>
+        <v>77.96611849686684</v>
       </c>
       <c r="L29" t="n">
-        <v>96.72386423115933</v>
+        <v>96.72386423115918</v>
       </c>
       <c r="M29" t="n">
-        <v>107.6239356505841</v>
+        <v>107.623935650584</v>
       </c>
       <c r="N29" t="n">
-        <v>109.3654034467711</v>
+        <v>109.365403446771</v>
       </c>
       <c r="O29" t="n">
-        <v>103.2706492370625</v>
+        <v>103.2706492370624</v>
       </c>
       <c r="P29" t="n">
-        <v>88.13910987292111</v>
+        <v>88.13910987292098</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126787</v>
+        <v>66.18880087126777</v>
       </c>
       <c r="R29" t="n">
-        <v>38.50153152740245</v>
+        <v>38.50153152740239</v>
       </c>
       <c r="S29" t="n">
-        <v>13.96698544852142</v>
+        <v>13.9669854485214</v>
       </c>
       <c r="T29" t="n">
-        <v>2.683070929277124</v>
+        <v>2.68307092927712</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.0490338490787366</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816685</v>
       </c>
       <c r="H30" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728221</v>
       </c>
       <c r="I30" t="n">
-        <v>11.29101228454431</v>
+        <v>11.29101228454429</v>
       </c>
       <c r="J30" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609791</v>
       </c>
       <c r="K30" t="n">
-        <v>52.95556678726977</v>
+        <v>52.9555667872697</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832687</v>
+        <v>71.20529466832676</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116235</v>
+        <v>83.09322034116224</v>
       </c>
       <c r="N30" t="n">
-        <v>85.29245063199909</v>
+        <v>85.29245063199896</v>
       </c>
       <c r="O30" t="n">
-        <v>78.02592909549999</v>
+        <v>78.02592909549988</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655924</v>
+        <v>62.62268698655915</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.86160783813727</v>
+        <v>41.8616078381372</v>
       </c>
       <c r="R30" t="n">
-        <v>20.36121909554258</v>
+        <v>20.36121909554255</v>
       </c>
       <c r="S30" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598094</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324356</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02157518270932034</v>
+        <v>0.02157518270932031</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2749362080772405</v>
+        <v>0.2749362080772401</v>
       </c>
       <c r="H31" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814009</v>
       </c>
       <c r="I31" t="n">
-        <v>8.268081602904653</v>
+        <v>8.26808160290464</v>
       </c>
       <c r="J31" t="n">
-        <v>19.4379899110609</v>
+        <v>19.43798991106087</v>
       </c>
       <c r="K31" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842843</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086537</v>
+        <v>40.87551588086531</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09750032614415</v>
+        <v>43.09750032614409</v>
       </c>
       <c r="N31" t="n">
-        <v>42.07273809603811</v>
+        <v>42.07273809603804</v>
       </c>
       <c r="O31" t="n">
-        <v>38.86098330168124</v>
+        <v>38.86098330168118</v>
       </c>
       <c r="P31" t="n">
-        <v>33.25228465690551</v>
+        <v>33.25228465690546</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.02215829635875</v>
+        <v>23.02215829635871</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3621316831821</v>
+        <v>12.36213168318208</v>
       </c>
       <c r="S31" t="n">
-        <v>4.791388280764271</v>
+        <v>4.791388280764264</v>
       </c>
       <c r="T31" t="n">
-        <v>1.174727434511845</v>
+        <v>1.174727434511843</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01499652044057677</v>
+        <v>0.01499652044057675</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7468853988437</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>157.4603277954583</v>
+        <v>289.9750342602088</v>
       </c>
       <c r="O11" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P11" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.84617499196276</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K12" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L12" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>292.5491863573437</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>294.0896221709041</v>
       </c>
       <c r="P12" t="n">
-        <v>292.549186357343</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>201.2268904498486</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.88621252291679</v>
+        <v>65.88621252291674</v>
       </c>
       <c r="L13" t="n">
         <v>142.49882840638</v>
       </c>
       <c r="M13" t="n">
-        <v>162.2828600509944</v>
+        <v>162.2828600509943</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6912651158365</v>
+        <v>161.6912651158364</v>
       </c>
       <c r="O13" t="n">
-        <v>138.3192120852062</v>
+        <v>138.3192120852061</v>
       </c>
       <c r="P13" t="n">
-        <v>96.85681367522652</v>
+        <v>96.85681367522646</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>120.6322974881483</v>
+        <v>120.6322974881478</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="P14" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.5749157061538</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.84617499196276</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.7642057369553</v>
       </c>
       <c r="L15" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="M15" t="n">
-        <v>292.5491863573441</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>90.30573917840124</v>
       </c>
       <c r="Q15" t="n">
         <v>201.2268904498486</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.88621252291679</v>
+        <v>65.88621252291674</v>
       </c>
       <c r="L16" t="n">
         <v>142.49882840638</v>
       </c>
       <c r="M16" t="n">
-        <v>162.2828600509944</v>
+        <v>162.2828600509943</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6912651158365</v>
+        <v>161.6912651158364</v>
       </c>
       <c r="O16" t="n">
-        <v>138.3192120852062</v>
+        <v>138.3192120852061</v>
       </c>
       <c r="P16" t="n">
-        <v>96.85681367522652</v>
+        <v>96.85681367522646</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.7468853988436</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>289.9750342602092</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="M17" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0896221709043</v>
+        <v>120.6322974881478</v>
       </c>
       <c r="Q17" t="n">
         <v>161.5749157061537</v>
@@ -35963,25 +35963,25 @@
         <v>91.84617499196271</v>
       </c>
       <c r="K18" t="n">
-        <v>283.2237699233953</v>
+        <v>190.3610382023387</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="N18" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="P18" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>124.7468853988436</v>
       </c>
       <c r="K20" t="n">
-        <v>289.9750342602092</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>157.4603277954577</v>
       </c>
       <c r="M20" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="N20" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>91.84617499196271</v>
       </c>
       <c r="K21" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>283.2237699233938</v>
       </c>
       <c r="P21" t="n">
-        <v>199.6864546362885</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K23" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>294.0896221709043</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="N23" t="n">
-        <v>294.0896221709043</v>
+        <v>289.9750342602078</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="P23" t="n">
-        <v>282.207213194302</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.84617499196271</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>190.3610382023394</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="O24" t="n">
-        <v>294.0896221709043</v>
+        <v>294.0896221709036</v>
       </c>
       <c r="P24" t="n">
-        <v>294.0896221709043</v>
+        <v>80.98032274445283</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.7417100390895</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K26" t="n">
         <v>421.5269755055802</v>
       </c>
       <c r="L26" t="n">
-        <v>448.1232309836302</v>
+        <v>549.1180556238761</v>
       </c>
       <c r="M26" t="n">
-        <v>605.8300393343532</v>
+        <v>545.7130900631241</v>
       </c>
       <c r="N26" t="n">
-        <v>582.1606189076803</v>
+        <v>592.5131156503662</v>
       </c>
       <c r="O26" t="n">
         <v>512.3509127387567</v>
       </c>
       <c r="P26" t="n">
-        <v>419.5954460849378</v>
+        <v>419.5954460849379</v>
       </c>
       <c r="Q26" t="n">
         <v>262.5697403463996</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.76445252854315</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9761483513378</v>
+        <v>60.97614835133781</v>
       </c>
       <c r="K28" t="n">
-        <v>166.8810371631627</v>
+        <v>166.8810371631621</v>
       </c>
       <c r="L28" t="n">
         <v>243.4936530466259</v>
@@ -36765,13 +36765,13 @@
         <v>262.6860897560823</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3140367254518</v>
+        <v>239.3140367254521</v>
       </c>
       <c r="P28" t="n">
         <v>197.8516383154724</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375678</v>
+        <v>85.8650150037568</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>225.7417100390896</v>
       </c>
       <c r="K29" t="n">
-        <v>421.5269755055803</v>
+        <v>421.5269755055802</v>
       </c>
       <c r="L29" t="n">
-        <v>549.1180556238762</v>
+        <v>489.0011063526474</v>
       </c>
       <c r="M29" t="n">
-        <v>605.8300393343533</v>
+        <v>605.830039334353</v>
       </c>
       <c r="N29" t="n">
-        <v>532.3961663791365</v>
+        <v>491.5182910101202</v>
       </c>
       <c r="O29" t="n">
-        <v>411.356088098511</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P29" t="n">
-        <v>419.595446084938</v>
+        <v>419.5954460849379</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.5697403463997</v>
+        <v>262.5697403463996</v>
       </c>
       <c r="R29" t="n">
-        <v>49.7644525285432</v>
+        <v>49.76445252854316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.84617499196276</v>
+        <v>91.8461749919627</v>
       </c>
       <c r="K30" t="n">
-        <v>284.7642057369553</v>
+        <v>284.7642057369552</v>
       </c>
       <c r="L30" t="n">
-        <v>440.722309991676</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M30" t="n">
-        <v>573.0259006545224</v>
+        <v>38.40016287819117</v>
       </c>
       <c r="N30" t="n">
-        <v>67.09665843457817</v>
+        <v>601.7223962109101</v>
       </c>
       <c r="O30" t="n">
-        <v>474.1874955441372</v>
+        <v>474.1874955441371</v>
       </c>
       <c r="P30" t="n">
-        <v>367.7700801943342</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q30" t="n">
         <v>201.2268904498486</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97614835133784</v>
+        <v>60.97614835133783</v>
       </c>
       <c r="K31" t="n">
         <v>166.8810371631627</v>
       </c>
       <c r="L31" t="n">
-        <v>243.493653046626</v>
+        <v>243.4936530466259</v>
       </c>
       <c r="M31" t="n">
         <v>263.2776846912403</v>
@@ -37005,10 +37005,10 @@
         <v>239.3140367254521</v>
       </c>
       <c r="P31" t="n">
-        <v>197.8516383154725</v>
+        <v>197.8516383154724</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86501500375684</v>
+        <v>85.86501500375681</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.7468853988436</v>
+        <v>165.6247607678616</v>
       </c>
       <c r="K32" t="n">
-        <v>361.4100262343512</v>
+        <v>421.5269755055801</v>
       </c>
       <c r="L32" t="n">
-        <v>549.1180556238761</v>
+        <v>448.1232309836302</v>
       </c>
       <c r="M32" t="n">
-        <v>605.8300393343532</v>
+        <v>605.8300393343529</v>
       </c>
       <c r="N32" t="n">
-        <v>592.5131156503662</v>
+        <v>592.5131156503661</v>
       </c>
       <c r="O32" t="n">
         <v>512.3509127387567</v>
       </c>
       <c r="P32" t="n">
-        <v>419.5954460849379</v>
+        <v>419.5954460849377</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5697403463996</v>
+        <v>262.5697403463995</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854317</v>
+        <v>49.76445252854304</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>284.7642057369553</v>
       </c>
       <c r="L33" t="n">
-        <v>199.1696376571558</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M33" t="n">
-        <v>573.0259006545223</v>
+        <v>331.4732283200022</v>
       </c>
       <c r="N33" t="n">
         <v>601.7223962109101</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133704</v>
+        <v>60.9761483513377</v>
       </c>
       <c r="K34" t="n">
-        <v>166.8810371631627</v>
+        <v>166.8810371631625</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4936530466259</v>
+        <v>243.4936530466258</v>
       </c>
       <c r="M34" t="n">
-        <v>263.2776846912403</v>
+        <v>263.2776846912423</v>
       </c>
       <c r="N34" t="n">
-        <v>262.6860897560824</v>
+        <v>262.6860897560822</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3140367254521</v>
+        <v>239.314036725452</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8516383154724</v>
+        <v>197.8516383154723</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375681</v>
+        <v>85.86501500375668</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7468853988436</v>
+        <v>105.0053124144955</v>
       </c>
       <c r="K35" t="n">
         <v>320.5321508653343</v>
       </c>
       <c r="L35" t="n">
-        <v>448.1232309836302</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>504.8352146941072</v>
@@ -37321,10 +37321,10 @@
         <v>411.3560880985108</v>
       </c>
       <c r="P35" t="n">
-        <v>12.31073318286791</v>
+        <v>318.6006214446919</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>91.84617499196271</v>
       </c>
       <c r="K36" t="n">
-        <v>284.7642057369553</v>
+        <v>164.6437424069329</v>
       </c>
       <c r="L36" t="n">
         <v>440.7223099916759</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>573.0259006545223</v>
       </c>
       <c r="N36" t="n">
-        <v>584.257236808949</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>342.8356960596887</v>
+        <v>474.1874955441372</v>
       </c>
       <c r="P36" t="n">
         <v>367.7700801943341</v>
@@ -37546,10 +37546,10 @@
         <v>320.5321508653343</v>
       </c>
       <c r="L38" t="n">
-        <v>448.1232309836302</v>
+        <v>141.8333427218087</v>
       </c>
       <c r="M38" t="n">
-        <v>36.97041072612895</v>
+        <v>504.8352146941072</v>
       </c>
       <c r="N38" t="n">
         <v>491.5182910101202</v>
@@ -37561,7 +37561,7 @@
         <v>318.6006214446919</v>
       </c>
       <c r="Q38" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L39" t="n">
-        <v>112.9549905816227</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M39" t="n">
         <v>573.0259006545223</v>
       </c>
       <c r="N39" t="n">
-        <v>584.2572368089488</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>474.1874955441372</v>
       </c>
       <c r="P39" t="n">
-        <v>367.7700801943341</v>
+        <v>247.6496168643151</v>
       </c>
       <c r="Q39" t="n">
         <v>201.2268904498486</v>
@@ -37780,7 +37780,7 @@
         <v>124.7468853988436</v>
       </c>
       <c r="K41" t="n">
-        <v>320.5321508653343</v>
+        <v>19.65716548011314</v>
       </c>
       <c r="L41" t="n">
         <v>448.1232309836302</v>
@@ -37789,16 +37789,16 @@
         <v>504.8352146941072</v>
       </c>
       <c r="N41" t="n">
-        <v>440.4244780172589</v>
+        <v>491.5182910101202</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>411.3560880985108</v>
       </c>
       <c r="P41" t="n">
         <v>318.6006214446919</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K42" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>440.7223099916759</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>573.0259006545223</v>
       </c>
       <c r="N42" t="n">
-        <v>585.6247760558468</v>
+        <v>170.0586452835365</v>
       </c>
       <c r="O42" t="n">
         <v>474.1874955441372</v>
@@ -37877,7 +37877,7 @@
         <v>367.7700801943341</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.7686295870706</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>320.5321508653343</v>
       </c>
       <c r="L44" t="n">
-        <v>448.1232309836302</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>504.8352146941072</v>
       </c>
       <c r="N44" t="n">
-        <v>491.5182910101202</v>
+        <v>477.1916209023756</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>411.3560880985108</v>
       </c>
       <c r="P44" t="n">
-        <v>267.5068084518308</v>
+        <v>318.6006214446919</v>
       </c>
       <c r="Q44" t="n">
         <v>161.5749157061537</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.84617499196271</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>318.2292446611795</v>
+        <v>440.7223099916759</v>
       </c>
       <c r="M45" t="n">
         <v>573.0259006545223</v>
       </c>
       <c r="N45" t="n">
-        <v>585.6247760558468</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="O45" t="n">
-        <v>474.1874955441372</v>
+        <v>58.62136477182751</v>
       </c>
       <c r="P45" t="n">
         <v>367.7700801943341</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
